--- a/ExcelFiles/Halwell_Contractors_20220411.xlsm.xlsx
+++ b/ExcelFiles/Halwell_Contractors_20220411.xlsm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/345d1610474a9baa/Quotey McQuoteface/Rating and Covermatch/Rating 20020723/Contractors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{E7077493-E2A1-4878-AD14-719C1E64678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85676CAD-C2D1-4D42-9376-1FA3AF0D5747}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{E7077493-E2A1-4878-AD14-719C1E64678B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A761679-9250-4FE2-9A6F-DAF5F56C4B62}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-90" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="13" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="1428">
   <si>
     <t>Item Type</t>
   </si>
@@ -5114,6 +5114,24 @@
   </si>
   <si>
     <t>Commission</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>L1M1E5</t>
+  </si>
+  <si>
+    <t>Essential</t>
+  </si>
+  <si>
+    <t>3D Comprehensive Crime Coverage</t>
+  </si>
+  <si>
+    <t>The business is not required to be licensed or certified</t>
+  </si>
+  <si>
+    <t>Example working input string</t>
   </si>
 </sst>
 </file>
@@ -5521,7 +5539,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5675,6 +5693,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6413,7 +6437,7 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="570">
+  <cellXfs count="580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7192,21 +7216,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7240,49 +7250,82 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="37" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7316,13 +7359,9 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7348,7 +7387,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7356,7 +7394,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7364,59 +7401,47 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="37" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="37" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7426,6 +7451,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7433,7 +7489,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7464,28 +7519,10 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="14" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7499,36 +7536,6 @@
     </xf>
     <xf numFmtId="8" fontId="2" fillId="14" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7544,8 +7551,23 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7580,6 +7602,32 @@
     <xf numFmtId="0" fontId="27" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="27" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -7591,6 +7639,87 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7730,87 +7859,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8899,16 +8947,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A2EFA0C7-260A-4923-9BA3-2A37EF789674}" name="Table2" displayName="Table2" ref="A11:G48" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A2EFA0C7-260A-4923-9BA3-2A37EF789674}" name="Table2" displayName="Table2" ref="A11:G48" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <autoFilter ref="A11:G48" xr:uid="{1323A832-9370-4C02-82A3-3206BF51BCB9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{71C1628E-C6A0-4E86-A67A-D988FF1F141E}" name="Item Type" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9EEA56D5-F90C-4D5A-B7D2-9E38CD214C57}" name="Coverage" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5378E7E5-EFC4-422A-A2FE-FE065DEAC86C}" name="Deductible" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{0A334F1A-64AE-465C-B241-642976B53033}" name="Co-Ins" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{C9ABADFF-3957-469C-811B-E79457A654C3}" name="Limit" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{8E157007-A479-43AD-A3DB-B63F5F0AFA04}" name="Rate" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{A85775B7-1F59-4CB9-B6EC-7806E84DF708}" name="Premium" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{71C1628E-C6A0-4E86-A67A-D988FF1F141E}" name="Item Type" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9EEA56D5-F90C-4D5A-B7D2-9E38CD214C57}" name="Coverage" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{5378E7E5-EFC4-422A-A2FE-FE065DEAC86C}" name="Deductible" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{0A334F1A-64AE-465C-B241-642976B53033}" name="Co-Ins" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{C9ABADFF-3957-469C-811B-E79457A654C3}" name="Limit" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{8E157007-A479-43AD-A3DB-B63F5F0AFA04}" name="Rate" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{A85775B7-1F59-4CB9-B6EC-7806E84DF708}" name="Premium" dataDxfId="9" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9216,8 +9264,8 @@
   </sheetPr>
   <dimension ref="A1:AQ312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C195"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -9312,23 +9360,23 @@
     </row>
     <row r="2" spans="1:38" s="194" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="191"/>
-      <c r="B2" s="409" t="s">
+      <c r="B2" s="405" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="410"/>
-      <c r="D2" s="411" t="s">
+      <c r="C2" s="406"/>
+      <c r="D2" s="407" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="412"/>
-      <c r="F2" s="412"/>
-      <c r="G2" s="412"/>
-      <c r="H2" s="412"/>
-      <c r="I2" s="412"/>
-      <c r="J2" s="412"/>
-      <c r="K2" s="412"/>
-      <c r="L2" s="412"/>
-      <c r="M2" s="412"/>
-      <c r="N2" s="413"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="408"/>
+      <c r="G2" s="408"/>
+      <c r="H2" s="408"/>
+      <c r="I2" s="408"/>
+      <c r="J2" s="408"/>
+      <c r="K2" s="408"/>
+      <c r="L2" s="408"/>
+      <c r="M2" s="408"/>
+      <c r="N2" s="409"/>
       <c r="O2" s="192" t="s">
         <v>1012</v>
       </c>
@@ -9345,21 +9393,21 @@
       <c r="Z2" s="193"/>
       <c r="AA2" s="193"/>
       <c r="AB2" s="193"/>
-      <c r="AC2" s="398" t="s">
+      <c r="AC2" s="410" t="s">
         <v>343</v>
       </c>
-      <c r="AD2" s="399"/>
-      <c r="AE2" s="400" t="s">
+      <c r="AD2" s="411"/>
+      <c r="AE2" s="412" t="s">
         <v>344</v>
       </c>
-      <c r="AF2" s="401"/>
-      <c r="AG2" s="402"/>
-      <c r="AH2" s="403" t="s">
+      <c r="AF2" s="413"/>
+      <c r="AG2" s="414"/>
+      <c r="AH2" s="399" t="s">
         <v>345</v>
       </c>
-      <c r="AI2" s="404"/>
-      <c r="AJ2" s="404"/>
-      <c r="AK2" s="405"/>
+      <c r="AI2" s="400"/>
+      <c r="AJ2" s="400"/>
+      <c r="AK2" s="401"/>
     </row>
     <row r="3" spans="1:38" ht="17.25" x14ac:dyDescent="0.3">
       <c r="I3" s="308"/>
@@ -9404,15 +9452,15 @@
       <c r="H5" s="197" t="s">
         <v>351</v>
       </c>
-      <c r="I5" s="406" t="str" cm="1">
+      <c r="I5" s="402" t="str" cm="1">
         <f t="array" ref="I5">IFERROR(INDEX($M$9:$M$100,MATCH(TRUE,$M$9:$M$100&lt;&gt;"",0)),"")</f>
         <v>Previous cancellations, declination or refusals to renew</v>
       </c>
-      <c r="J5" s="406"/>
-      <c r="K5" s="406"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="406"/>
-      <c r="N5" s="407"/>
+      <c r="J5" s="402"/>
+      <c r="K5" s="402"/>
+      <c r="L5" s="402"/>
+      <c r="M5" s="402"/>
+      <c r="N5" s="403"/>
       <c r="O5" s="204" t="s">
         <v>1011</v>
       </c>
@@ -9467,15 +9515,15 @@
       <c r="H6" s="197" t="s">
         <v>360</v>
       </c>
-      <c r="I6" s="406" t="str" cm="1">
+      <c r="I6" s="402" t="str" cm="1">
         <f t="array" aca="1" ref="I6" ca="1">IFERROR(INDEX($N$9:$N$100,MATCH(TRUE,$N$9:$N$100&lt;&gt;"",0)),"")</f>
         <v/>
       </c>
-      <c r="J6" s="406"/>
-      <c r="K6" s="406"/>
-      <c r="L6" s="406"/>
-      <c r="M6" s="406"/>
-      <c r="N6" s="407"/>
+      <c r="J6" s="402"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="402"/>
+      <c r="M6" s="402"/>
+      <c r="N6" s="403"/>
       <c r="O6" s="270"/>
       <c r="P6" s="270"/>
       <c r="Q6" s="271"/>
@@ -9549,10 +9597,10 @@
         <v>368</v>
       </c>
       <c r="C8" s="214"/>
-      <c r="D8" s="408" t="s">
+      <c r="D8" s="404" t="s">
         <v>370</v>
       </c>
-      <c r="E8" s="408"/>
+      <c r="E8" s="404"/>
       <c r="F8" s="215" t="s">
         <v>371</v>
       </c>
@@ -10258,7 +10306,7 @@
       <c r="AE15" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="AF15" s="210"/>
+      <c r="AF15" s="398"/>
       <c r="AG15" s="231" t="str">
         <f ca="1">IF($AG$9="Quote","Included","")</f>
         <v/>
@@ -10357,7 +10405,7 @@
       <c r="AE16" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AF16" s="210"/>
+      <c r="AF16" s="398"/>
       <c r="AG16" s="231" t="str">
         <f ca="1">IF($AG$9="Quote","Included","")</f>
         <v/>
@@ -11609,7 +11657,7 @@
       <c r="AE29" s="211" t="s">
         <v>323</v>
       </c>
-      <c r="AF29" s="210"/>
+      <c r="AF29" s="398"/>
       <c r="AG29" s="231" t="str">
         <f ca="1">IF($AG$9="Quote","Included","")</f>
         <v/>
@@ -11933,7 +11981,7 @@
       </c>
       <c r="I33" s="234"/>
       <c r="J33" s="224">
-        <f>IF(OR(C16="Yes",C16="NA"),0,1)</f>
+        <f>IF(OR(C16="Yes",C16="NA",C16="Yes - the business has all required licenses / certification",C16="The business is not required to be licensed or certified"),0,1)</f>
         <v>1</v>
       </c>
       <c r="K33" s="224" t="s">
@@ -13450,7 +13498,7 @@
       <c r="AE48" s="211" t="s">
         <v>764</v>
       </c>
-      <c r="AF48" s="210"/>
+      <c r="AF48" s="398"/>
       <c r="AG48" s="231" t="str">
         <f ca="1">IF($AG$9="Quote",Calculator!H98,"")</f>
         <v/>
@@ -13559,7 +13607,7 @@
       <c r="AE49" s="211" t="s">
         <v>767</v>
       </c>
-      <c r="AF49" s="210"/>
+      <c r="AF49" s="398"/>
       <c r="AG49" s="231" t="str">
         <f ca="1">IF($AG$9="Quote",Calculator!H99,"")</f>
         <v/>
@@ -13779,7 +13827,7 @@
       <c r="AE51" s="211" t="s">
         <v>775</v>
       </c>
-      <c r="AF51" s="210"/>
+      <c r="AF51" s="398"/>
       <c r="AG51" s="231" t="str">
         <f ca="1">IF($AG$9="Quote",Calculator!H101,"")</f>
         <v/>
@@ -13996,7 +14044,7 @@
       <c r="AE53" s="211" t="s">
         <v>784</v>
       </c>
-      <c r="AF53" s="210"/>
+      <c r="AF53" s="398"/>
       <c r="AG53" s="231" t="str">
         <f ca="1">IF($AG$9="Quote",Calculator!H103,"")</f>
         <v/>
@@ -16413,7 +16461,7 @@
       <c r="AE85" s="211" t="s">
         <v>671</v>
       </c>
-      <c r="AF85" s="210"/>
+      <c r="AF85" s="398"/>
       <c r="AG85" s="231" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -16451,7 +16499,7 @@
       <c r="AE86" s="211" t="s">
         <v>1349</v>
       </c>
-      <c r="AF86" s="210"/>
+      <c r="AF86" s="398"/>
       <c r="AG86" s="231" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -16577,6 +16625,9 @@
         <v>739</v>
       </c>
       <c r="C89" s="344"/>
+      <c r="E89" s="579" t="s">
+        <v>1427</v>
+      </c>
       <c r="O89" s="173" t="s">
         <v>1273</v>
       </c>
@@ -16620,6 +16671,12 @@
         <v>742</v>
       </c>
       <c r="C90" s="344"/>
+      <c r="E90" s="571" t="s">
+        <v>359</v>
+      </c>
+      <c r="F90" s="572" t="s">
+        <v>349</v>
+      </c>
       <c r="R90" s="175"/>
       <c r="T90" s="175"/>
       <c r="AE90" s="211" t="s">
@@ -16655,6 +16712,12 @@
         <v>744</v>
       </c>
       <c r="C91" s="344"/>
+      <c r="E91" s="571" t="s">
+        <v>364</v>
+      </c>
+      <c r="F91" s="572" t="s">
+        <v>1422</v>
+      </c>
       <c r="O91" s="238" t="s">
         <v>861</v>
       </c>
@@ -16663,7 +16726,7 @@
       <c r="AE91" s="211" t="s">
         <v>1354</v>
       </c>
-      <c r="AF91" s="210"/>
+      <c r="AF91" s="398"/>
       <c r="AG91" s="231" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
@@ -16691,6 +16754,12 @@
         <v>746</v>
       </c>
       <c r="C92" s="344"/>
+      <c r="E92" s="571" t="s">
+        <v>368</v>
+      </c>
+      <c r="F92" s="572" t="s">
+        <v>1423</v>
+      </c>
       <c r="O92" s="151" t="s">
         <v>655</v>
       </c>
@@ -16740,6 +16809,12 @@
         <v>748</v>
       </c>
       <c r="C93" s="344"/>
+      <c r="E93" s="571" t="s">
+        <v>384</v>
+      </c>
+      <c r="F93" s="572" t="s">
+        <v>369</v>
+      </c>
       <c r="O93" s="173" t="s">
         <v>864</v>
       </c>
@@ -16792,6 +16867,12 @@
         <v>751</v>
       </c>
       <c r="C94" s="344"/>
+      <c r="E94" s="571" t="s">
+        <v>391</v>
+      </c>
+      <c r="F94" s="572" t="s">
+        <v>369</v>
+      </c>
       <c r="O94" s="173" t="s">
         <v>865</v>
       </c>
@@ -16844,6 +16925,12 @@
         <v>754</v>
       </c>
       <c r="C95" s="344"/>
+      <c r="E95" s="571" t="s">
+        <v>393</v>
+      </c>
+      <c r="F95" s="573">
+        <v>0</v>
+      </c>
       <c r="R95" s="175"/>
       <c r="T95" s="175"/>
       <c r="AE95" s="272" t="s">
@@ -16879,6 +16966,12 @@
         <v>755</v>
       </c>
       <c r="C96" s="344"/>
+      <c r="E96" s="571" t="s">
+        <v>400</v>
+      </c>
+      <c r="F96" s="572" t="s">
+        <v>394</v>
+      </c>
       <c r="O96" s="238" t="s">
         <v>871</v>
       </c>
@@ -16917,6 +17010,12 @@
         <v>759</v>
       </c>
       <c r="C97" s="344"/>
+      <c r="E97" s="571" t="s">
+        <v>407</v>
+      </c>
+      <c r="F97" s="574" t="s">
+        <v>369</v>
+      </c>
       <c r="O97" s="151" t="s">
         <v>655</v>
       </c>
@@ -16962,6 +17061,12 @@
         <v>763</v>
       </c>
       <c r="C98" s="342"/>
+      <c r="E98" s="571" t="s">
+        <v>412</v>
+      </c>
+      <c r="F98" s="572">
+        <v>2005</v>
+      </c>
       <c r="O98" s="173" t="s">
         <v>1212</v>
       </c>
@@ -17015,6 +17120,12 @@
         <v>766</v>
       </c>
       <c r="C99" s="344"/>
+      <c r="E99" s="571" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" s="572">
+        <v>10</v>
+      </c>
       <c r="O99" s="173" t="s">
         <v>523</v>
       </c>
@@ -17065,6 +17176,12 @@
         <v>769</v>
       </c>
       <c r="C100" s="344"/>
+      <c r="E100" s="571" t="s">
+        <v>424</v>
+      </c>
+      <c r="F100" s="572">
+        <v>3</v>
+      </c>
       <c r="O100" s="274" t="s">
         <v>527</v>
       </c>
@@ -17124,6 +17241,12 @@
         <v>774</v>
       </c>
       <c r="C101" s="214"/>
+      <c r="E101" s="571" t="s">
+        <v>430</v>
+      </c>
+      <c r="F101" s="574" t="s">
+        <v>1426</v>
+      </c>
       <c r="O101" s="274" t="s">
         <v>532</v>
       </c>
@@ -17183,6 +17306,12 @@
         <v>777</v>
       </c>
       <c r="C102" s="231"/>
+      <c r="E102" s="571" t="s">
+        <v>437</v>
+      </c>
+      <c r="F102" s="572" t="s">
+        <v>369</v>
+      </c>
       <c r="O102" s="274"/>
       <c r="P102" s="274"/>
       <c r="Q102" s="274"/>
@@ -17232,6 +17361,12 @@
         <v>782</v>
       </c>
       <c r="C103" s="231"/>
+      <c r="E103" s="571" t="s">
+        <v>443</v>
+      </c>
+      <c r="F103" s="575">
+        <v>175200</v>
+      </c>
       <c r="O103" s="238" t="s">
         <v>1061</v>
       </c>
@@ -17242,7 +17377,7 @@
       <c r="AE103" s="211" t="s">
         <v>1365</v>
       </c>
-      <c r="AF103" s="210"/>
+      <c r="AF103" s="398"/>
       <c r="AG103" s="231" t="str">
         <f t="shared" ref="AG103:AG111" ca="1" si="37">IF($AG$9="Quote","Included","")</f>
         <v/>
@@ -17270,6 +17405,12 @@
         <v>785</v>
       </c>
       <c r="C104" s="231"/>
+      <c r="E104" s="571" t="s">
+        <v>449</v>
+      </c>
+      <c r="F104" s="576">
+        <v>50000</v>
+      </c>
       <c r="O104" s="151" t="s">
         <v>655</v>
       </c>
@@ -17287,7 +17428,7 @@
       <c r="AE104" s="211" t="s">
         <v>1366</v>
       </c>
-      <c r="AF104" s="210"/>
+      <c r="AF104" s="398"/>
       <c r="AG104" s="231" t="str">
         <f t="shared" ca="1" si="37"/>
         <v/>
@@ -17315,6 +17456,12 @@
         <v>790</v>
       </c>
       <c r="C105" s="231"/>
+      <c r="E105" s="571" t="s">
+        <v>456</v>
+      </c>
+      <c r="F105" s="576">
+        <v>100</v>
+      </c>
       <c r="O105" s="173" t="s">
         <v>1062</v>
       </c>
@@ -17369,18 +17516,23 @@
         <v>795</v>
       </c>
       <c r="C106" s="231"/>
+      <c r="E106" s="571" t="s">
+        <v>463</v>
+      </c>
+      <c r="F106" s="576"/>
       <c r="O106" s="173" t="s">
         <v>1063</v>
       </c>
       <c r="Q106" s="292">
-        <v>2020</v>
+        <f>C134</f>
+        <v>0</v>
       </c>
       <c r="R106" s="175" t="s">
         <v>1070</v>
       </c>
       <c r="S106" s="279">
         <f ca="1">YEAR(NOW())-Q106</f>
-        <v>2</v>
+        <v>2022</v>
       </c>
       <c r="T106" s="175"/>
       <c r="AC106" s="245"/>
@@ -17418,6 +17570,10 @@
         <v>801</v>
       </c>
       <c r="C107" s="231"/>
+      <c r="E107" s="571" t="s">
+        <v>468</v>
+      </c>
+      <c r="F107" s="576"/>
       <c r="O107" s="173" t="s">
         <v>1046</v>
       </c>
@@ -17468,6 +17624,10 @@
         <v>558</v>
       </c>
       <c r="C108" s="344"/>
+      <c r="E108" s="571" t="s">
+        <v>471</v>
+      </c>
+      <c r="F108" s="576"/>
       <c r="O108" s="173" t="s">
         <v>1064</v>
       </c>
@@ -17517,6 +17677,10 @@
         <v>1281</v>
       </c>
       <c r="C109" s="342"/>
+      <c r="E109" s="571" t="s">
+        <v>475</v>
+      </c>
+      <c r="F109" s="574"/>
       <c r="O109" s="173" t="s">
         <v>1065</v>
       </c>
@@ -17565,6 +17729,10 @@
         <v>811</v>
       </c>
       <c r="C110" s="231"/>
+      <c r="E110" s="571" t="s">
+        <v>477</v>
+      </c>
+      <c r="F110" s="572"/>
       <c r="O110" s="173" t="s">
         <v>1066</v>
       </c>
@@ -17613,6 +17781,10 @@
         <v>813</v>
       </c>
       <c r="C111" s="231"/>
+      <c r="E111" s="571" t="s">
+        <v>482</v>
+      </c>
+      <c r="F111" s="576"/>
       <c r="O111" s="173" t="s">
         <v>1067</v>
       </c>
@@ -17663,6 +17835,10 @@
         <v>815</v>
       </c>
       <c r="C112" s="231"/>
+      <c r="E112" s="571" t="s">
+        <v>485</v>
+      </c>
+      <c r="F112" s="576"/>
       <c r="O112" s="173" t="s">
         <v>1068</v>
       </c>
@@ -17711,6 +17887,10 @@
         <v>817</v>
       </c>
       <c r="C113" s="231"/>
+      <c r="E113" s="571" t="s">
+        <v>491</v>
+      </c>
+      <c r="F113" s="576"/>
       <c r="O113" s="173" t="s">
         <v>1060</v>
       </c>
@@ -17761,6 +17941,10 @@
         <v>818</v>
       </c>
       <c r="C114" s="231"/>
+      <c r="E114" s="571" t="s">
+        <v>497</v>
+      </c>
+      <c r="F114" s="576"/>
       <c r="O114" s="173" t="s">
         <v>1078</v>
       </c>
@@ -17802,6 +17986,10 @@
         <v>819</v>
       </c>
       <c r="C115" s="231"/>
+      <c r="E115" s="571" t="s">
+        <v>501</v>
+      </c>
+      <c r="F115" s="576"/>
       <c r="R115" s="175" t="s">
         <v>1071</v>
       </c>
@@ -17843,6 +18031,10 @@
         <v>636</v>
       </c>
       <c r="C116" s="231"/>
+      <c r="E116" s="571" t="s">
+        <v>506</v>
+      </c>
+      <c r="F116" s="574"/>
       <c r="R116" s="175"/>
       <c r="T116" s="175"/>
       <c r="AE116" s="211"/>
@@ -17871,6 +18063,10 @@
         <v>572</v>
       </c>
       <c r="C117" s="231"/>
+      <c r="E117" s="571" t="s">
+        <v>513</v>
+      </c>
+      <c r="F117" s="572"/>
       <c r="O117" s="238" t="s">
         <v>894</v>
       </c>
@@ -17902,6 +18098,10 @@
         <v>825</v>
       </c>
       <c r="C118" s="231"/>
+      <c r="E118" s="571" t="s">
+        <v>519</v>
+      </c>
+      <c r="F118" s="576"/>
       <c r="O118" s="151" t="s">
         <v>655</v>
       </c>
@@ -17944,6 +18144,10 @@
         <v>828</v>
       </c>
       <c r="C119" s="231"/>
+      <c r="E119" s="571" t="s">
+        <v>526</v>
+      </c>
+      <c r="F119" s="576"/>
       <c r="O119" s="173" t="s">
         <v>897</v>
       </c>
@@ -17987,6 +18191,10 @@
         <v>829</v>
       </c>
       <c r="C120" s="231"/>
+      <c r="E120" s="571" t="s">
+        <v>530</v>
+      </c>
+      <c r="F120" s="576"/>
       <c r="O120" s="272"/>
       <c r="P120" s="272"/>
       <c r="Q120" s="366"/>
@@ -18023,6 +18231,10 @@
         <v>832</v>
       </c>
       <c r="C121" s="231"/>
+      <c r="E121" s="571" t="s">
+        <v>535</v>
+      </c>
+      <c r="F121" s="576"/>
       <c r="R121" s="175" t="s">
         <v>922</v>
       </c>
@@ -18055,6 +18267,10 @@
         <v>567</v>
       </c>
       <c r="C122" s="344"/>
+      <c r="E122" s="571" t="s">
+        <v>542</v>
+      </c>
+      <c r="F122" s="576"/>
       <c r="Q122" s="259"/>
       <c r="R122" s="175">
         <v>0</v>
@@ -18088,6 +18304,10 @@
         <v>836</v>
       </c>
       <c r="C123" s="214"/>
+      <c r="E123" s="571" t="s">
+        <v>546</v>
+      </c>
+      <c r="F123" s="574"/>
       <c r="Q123" s="259"/>
       <c r="R123" s="175"/>
       <c r="T123" s="175"/>
@@ -18117,6 +18337,10 @@
         <v>839</v>
       </c>
       <c r="C124" s="214"/>
+      <c r="E124" s="571" t="s">
+        <v>550</v>
+      </c>
+      <c r="F124" s="572"/>
       <c r="R124" s="175"/>
       <c r="T124" s="175"/>
       <c r="AE124" s="211"/>
@@ -18145,6 +18369,10 @@
         <v>842</v>
       </c>
       <c r="C125" s="214"/>
+      <c r="E125" s="571" t="s">
+        <v>553</v>
+      </c>
+      <c r="F125" s="576"/>
       <c r="O125" s="238" t="s">
         <v>919</v>
       </c>
@@ -18176,6 +18404,10 @@
         <v>845</v>
       </c>
       <c r="C126" s="345"/>
+      <c r="E126" s="571" t="s">
+        <v>557</v>
+      </c>
+      <c r="F126" s="576"/>
       <c r="O126" s="151" t="s">
         <v>655</v>
       </c>
@@ -18219,6 +18451,10 @@
         <v>847</v>
       </c>
       <c r="C127" s="214"/>
+      <c r="E127" s="571" t="s">
+        <v>561</v>
+      </c>
+      <c r="F127" s="576"/>
       <c r="O127" s="173" t="s">
         <v>362</v>
       </c>
@@ -18262,6 +18498,10 @@
         <v>849</v>
       </c>
       <c r="C128" s="214"/>
+      <c r="E128" s="571" t="s">
+        <v>566</v>
+      </c>
+      <c r="F128" s="576"/>
       <c r="O128" s="173" t="s">
         <v>924</v>
       </c>
@@ -18301,6 +18541,10 @@
       <c r="B129" s="173" t="s">
         <v>854</v>
       </c>
+      <c r="E129" s="571" t="s">
+        <v>569</v>
+      </c>
+      <c r="F129" s="576"/>
       <c r="O129" s="173" t="s">
         <v>926</v>
       </c>
@@ -18340,6 +18584,10 @@
       <c r="B130" s="173" t="s">
         <v>857</v>
       </c>
+      <c r="E130" s="571" t="s">
+        <v>574</v>
+      </c>
+      <c r="F130" s="574"/>
       <c r="Q130" s="250"/>
       <c r="R130" s="175">
         <v>2000000</v>
@@ -18373,6 +18621,10 @@
       <c r="B131" s="173" t="s">
         <v>860</v>
       </c>
+      <c r="E131" s="571" t="s">
+        <v>578</v>
+      </c>
+      <c r="F131" s="572"/>
       <c r="O131" s="173" t="s">
         <v>903</v>
       </c>
@@ -18412,6 +18664,10 @@
       <c r="B132" s="173" t="s">
         <v>863</v>
       </c>
+      <c r="E132" s="571" t="s">
+        <v>581</v>
+      </c>
+      <c r="F132" s="576"/>
       <c r="O132" s="173" t="s">
         <v>904</v>
       </c>
@@ -18451,6 +18707,10 @@
       <c r="B133" s="173" t="s">
         <v>868</v>
       </c>
+      <c r="E133" s="571" t="s">
+        <v>583</v>
+      </c>
+      <c r="F133" s="576"/>
       <c r="O133" s="173" t="s">
         <v>906</v>
       </c>
@@ -18490,6 +18750,10 @@
       <c r="B134" s="274" t="s">
         <v>1045</v>
       </c>
+      <c r="E134" s="571" t="s">
+        <v>587</v>
+      </c>
+      <c r="F134" s="576"/>
       <c r="O134" s="173" t="s">
         <v>908</v>
       </c>
@@ -18528,6 +18792,10 @@
       <c r="B135" s="274" t="s">
         <v>1046</v>
       </c>
+      <c r="E135" s="571" t="s">
+        <v>592</v>
+      </c>
+      <c r="F135" s="576"/>
       <c r="R135" s="175" t="s">
         <v>932</v>
       </c>
@@ -18559,6 +18827,10 @@
       <c r="B136" s="274" t="s">
         <v>1047</v>
       </c>
+      <c r="E136" s="571" t="s">
+        <v>600</v>
+      </c>
+      <c r="F136" s="576"/>
       <c r="R136" s="175"/>
       <c r="T136" s="175"/>
       <c r="AE136" s="211"/>
@@ -18586,6 +18858,10 @@
       <c r="B137" s="274" t="s">
         <v>1048</v>
       </c>
+      <c r="E137" s="571" t="s">
+        <v>607</v>
+      </c>
+      <c r="F137" s="574"/>
       <c r="R137" s="175"/>
       <c r="T137" s="175"/>
       <c r="AE137" s="211"/>
@@ -18613,6 +18889,10 @@
       <c r="B138" s="274" t="s">
         <v>1055</v>
       </c>
+      <c r="E138" s="571" t="s">
+        <v>614</v>
+      </c>
+      <c r="F138" s="572"/>
       <c r="O138" s="238" t="s">
         <v>934</v>
       </c>
@@ -18643,6 +18923,10 @@
       <c r="B139" s="274" t="s">
         <v>1056</v>
       </c>
+      <c r="E139" s="571" t="s">
+        <v>620</v>
+      </c>
+      <c r="F139" s="576"/>
       <c r="O139" s="151" t="s">
         <v>655</v>
       </c>
@@ -18684,6 +18968,10 @@
       <c r="B140" s="274" t="s">
         <v>1059</v>
       </c>
+      <c r="E140" s="571" t="s">
+        <v>624</v>
+      </c>
+      <c r="F140" s="576"/>
       <c r="O140" s="173" t="s">
         <v>935</v>
       </c>
@@ -18729,6 +19017,10 @@
       <c r="B141" s="274" t="s">
         <v>1060</v>
       </c>
+      <c r="E141" s="571" t="s">
+        <v>631</v>
+      </c>
+      <c r="F141" s="576"/>
       <c r="Q141" s="250"/>
       <c r="R141" s="175">
         <v>0</v>
@@ -18769,6 +19061,10 @@
       <c r="B142" s="173" t="s">
         <v>870</v>
       </c>
+      <c r="E142" s="571" t="s">
+        <v>635</v>
+      </c>
+      <c r="F142" s="576"/>
       <c r="O142" s="173" t="s">
         <v>903</v>
       </c>
@@ -18814,6 +19110,10 @@
       <c r="B143" s="173" t="s">
         <v>873</v>
       </c>
+      <c r="E143" s="571" t="s">
+        <v>638</v>
+      </c>
+      <c r="F143" s="576"/>
       <c r="O143" s="173" t="s">
         <v>904</v>
       </c>
@@ -18852,6 +19152,10 @@
       <c r="B144" s="173" t="s">
         <v>877</v>
       </c>
+      <c r="E144" s="571" t="s">
+        <v>641</v>
+      </c>
+      <c r="F144" s="574"/>
       <c r="O144" s="173" t="s">
         <v>906</v>
       </c>
@@ -18890,6 +19194,10 @@
       <c r="B145" s="173" t="s">
         <v>880</v>
       </c>
+      <c r="E145" s="571" t="s">
+        <v>645</v>
+      </c>
+      <c r="F145" s="572"/>
       <c r="O145" s="173" t="s">
         <v>908</v>
       </c>
@@ -18928,6 +19236,10 @@
       <c r="B146" s="377" t="s">
         <v>1402</v>
       </c>
+      <c r="E146" s="571" t="s">
+        <v>648</v>
+      </c>
+      <c r="F146" s="576"/>
       <c r="R146" s="209">
         <v>100000</v>
       </c>
@@ -18959,6 +19271,10 @@
       <c r="B147" s="377" t="s">
         <v>1404</v>
       </c>
+      <c r="E147" s="571" t="s">
+        <v>652</v>
+      </c>
+      <c r="F147" s="576"/>
       <c r="R147" s="209">
         <v>250000</v>
       </c>
@@ -18990,6 +19306,10 @@
       <c r="B148" s="274" t="s">
         <v>1282</v>
       </c>
+      <c r="E148" s="571" t="s">
+        <v>654</v>
+      </c>
+      <c r="F148" s="576"/>
       <c r="R148" s="209">
         <v>500000</v>
       </c>
@@ -19021,6 +19341,10 @@
       <c r="B149" s="274" t="s">
         <v>1284</v>
       </c>
+      <c r="E149" s="571" t="s">
+        <v>662</v>
+      </c>
+      <c r="F149" s="576"/>
       <c r="R149" s="209">
         <v>1000000</v>
       </c>
@@ -19052,6 +19376,10 @@
       <c r="B150" s="274" t="s">
         <v>1285</v>
       </c>
+      <c r="E150" s="571" t="s">
+        <v>666</v>
+      </c>
+      <c r="F150" s="576"/>
       <c r="R150" s="209">
         <v>2000000</v>
       </c>
@@ -19083,6 +19411,10 @@
       <c r="B151" s="173" t="s">
         <v>881</v>
       </c>
+      <c r="E151" s="571" t="s">
+        <v>670</v>
+      </c>
+      <c r="F151" s="574"/>
       <c r="R151" s="209">
         <v>5000000</v>
       </c>
@@ -19114,6 +19446,10 @@
       <c r="B152" s="173" t="s">
         <v>884</v>
       </c>
+      <c r="E152" s="571" t="s">
+        <v>674</v>
+      </c>
+      <c r="F152" s="572"/>
       <c r="R152" s="175" t="s">
         <v>932</v>
       </c>
@@ -19145,6 +19481,10 @@
       <c r="B153" s="274" t="s">
         <v>627</v>
       </c>
+      <c r="E153" s="571" t="s">
+        <v>677</v>
+      </c>
+      <c r="F153" s="576"/>
       <c r="R153" s="175"/>
       <c r="T153" s="209"/>
       <c r="AE153" s="211"/>
@@ -19172,6 +19512,10 @@
       <c r="B154" s="274" t="s">
         <v>1080</v>
       </c>
+      <c r="E154" s="571" t="s">
+        <v>681</v>
+      </c>
+      <c r="F154" s="576"/>
       <c r="R154" s="175"/>
       <c r="T154" s="175"/>
       <c r="AE154" s="211"/>
@@ -19199,6 +19543,10 @@
       <c r="B155" s="274" t="s">
         <v>1081</v>
       </c>
+      <c r="E155" s="571" t="s">
+        <v>684</v>
+      </c>
+      <c r="F155" s="576"/>
       <c r="O155" s="238" t="s">
         <v>937</v>
       </c>
@@ -19229,6 +19577,10 @@
       <c r="B156" s="274" t="s">
         <v>1082</v>
       </c>
+      <c r="E156" s="571" t="s">
+        <v>687</v>
+      </c>
+      <c r="F156" s="576"/>
       <c r="O156" s="151" t="s">
         <v>655</v>
       </c>
@@ -19270,6 +19622,10 @@
       <c r="B157" s="274" t="s">
         <v>1083</v>
       </c>
+      <c r="E157" s="571" t="s">
+        <v>690</v>
+      </c>
+      <c r="F157" s="576"/>
       <c r="O157" s="173" t="s">
         <v>939</v>
       </c>
@@ -19312,6 +19668,10 @@
       <c r="B158" s="274" t="s">
         <v>1103</v>
       </c>
+      <c r="E158" s="571" t="s">
+        <v>694</v>
+      </c>
+      <c r="F158" s="574"/>
       <c r="O158" s="173" t="s">
         <v>940</v>
       </c>
@@ -19351,6 +19711,10 @@
       <c r="B159" s="276" t="s">
         <v>1104</v>
       </c>
+      <c r="E159" s="571" t="s">
+        <v>697</v>
+      </c>
+      <c r="F159" s="572"/>
       <c r="O159" s="173" t="s">
         <v>941</v>
       </c>
@@ -19390,6 +19754,10 @@
       <c r="B160" s="276" t="s">
         <v>1105</v>
       </c>
+      <c r="E160" s="571" t="s">
+        <v>700</v>
+      </c>
+      <c r="F160" s="576"/>
       <c r="R160" s="173" t="s">
         <v>223</v>
       </c>
@@ -19422,6 +19790,10 @@
       <c r="B161" s="276" t="s">
         <v>1106</v>
       </c>
+      <c r="E161" s="571" t="s">
+        <v>703</v>
+      </c>
+      <c r="F161" s="576"/>
       <c r="R161" s="173" t="s">
         <v>944</v>
       </c>
@@ -19454,6 +19826,10 @@
       <c r="B162" s="276" t="s">
         <v>1107</v>
       </c>
+      <c r="E162" s="571" t="s">
+        <v>706</v>
+      </c>
+      <c r="F162" s="576"/>
       <c r="T162" s="175"/>
       <c r="U162" s="175"/>
       <c r="AE162" s="211"/>
@@ -19481,6 +19857,10 @@
       <c r="B163" s="276" t="s">
         <v>1108</v>
       </c>
+      <c r="E163" s="571" t="s">
+        <v>708</v>
+      </c>
+      <c r="F163" s="576"/>
       <c r="U163" s="175"/>
       <c r="AE163" s="211"/>
       <c r="AF163" s="210"/>
@@ -19507,6 +19887,10 @@
       <c r="B164" s="276" t="s">
         <v>1110</v>
       </c>
+      <c r="E164" s="571" t="s">
+        <v>711</v>
+      </c>
+      <c r="F164" s="576"/>
       <c r="R164" s="173" t="s">
         <v>945</v>
       </c>
@@ -19542,6 +19926,10 @@
       <c r="B165" s="276" t="s">
         <v>1109</v>
       </c>
+      <c r="E165" s="571" t="s">
+        <v>714</v>
+      </c>
+      <c r="F165" s="574"/>
       <c r="R165" s="173" t="s">
         <v>858</v>
       </c>
@@ -19574,6 +19962,10 @@
       <c r="B166" s="276" t="s">
         <v>1115</v>
       </c>
+      <c r="E166" s="571" t="s">
+        <v>718</v>
+      </c>
+      <c r="F166" s="572"/>
       <c r="R166" s="173" t="s">
         <v>946</v>
       </c>
@@ -19606,6 +19998,10 @@
       <c r="B167" s="276" t="s">
         <v>1114</v>
       </c>
+      <c r="E167" s="571" t="s">
+        <v>721</v>
+      </c>
+      <c r="F167" s="576"/>
       <c r="R167" s="173" t="s">
         <v>944</v>
       </c>
@@ -19638,6 +20034,10 @@
       <c r="B168" s="276" t="s">
         <v>1112</v>
       </c>
+      <c r="E168" s="571" t="s">
+        <v>724</v>
+      </c>
+      <c r="F168" s="576"/>
       <c r="T168" s="175"/>
       <c r="U168" s="175"/>
       <c r="AE168" s="211"/>
@@ -19665,6 +20065,10 @@
       <c r="B169" s="303" t="s">
         <v>1111</v>
       </c>
+      <c r="E169" s="571" t="s">
+        <v>726</v>
+      </c>
+      <c r="F169" s="576"/>
       <c r="R169" s="173" t="s">
         <v>219</v>
       </c>
@@ -19700,6 +20104,10 @@
       <c r="B170" s="276" t="s">
         <v>1113</v>
       </c>
+      <c r="E170" s="571" t="s">
+        <v>730</v>
+      </c>
+      <c r="F170" s="576"/>
       <c r="R170" s="173" t="s">
         <v>947</v>
       </c>
@@ -19732,6 +20140,10 @@
       <c r="B171" s="276" t="s">
         <v>1116</v>
       </c>
+      <c r="E171" s="571" t="s">
+        <v>733</v>
+      </c>
+      <c r="F171" s="576"/>
       <c r="R171" s="173" t="s">
         <v>948</v>
       </c>
@@ -19764,6 +20176,10 @@
       <c r="B172" s="276" t="s">
         <v>1117</v>
       </c>
+      <c r="E172" s="571" t="s">
+        <v>736</v>
+      </c>
+      <c r="F172" s="574"/>
       <c r="R172" s="173" t="s">
         <v>944</v>
       </c>
@@ -19796,6 +20212,12 @@
       <c r="B173" s="276" t="s">
         <v>1118</v>
       </c>
+      <c r="E173" s="571" t="s">
+        <v>739</v>
+      </c>
+      <c r="F173" s="577">
+        <v>500000</v>
+      </c>
       <c r="R173" s="173" t="s">
         <v>949</v>
       </c>
@@ -19828,6 +20250,10 @@
       <c r="B174" s="276" t="s">
         <v>1120</v>
       </c>
+      <c r="E174" s="571" t="s">
+        <v>742</v>
+      </c>
+      <c r="F174" s="577"/>
       <c r="U174" s="175"/>
       <c r="AE174" s="211"/>
       <c r="AF174" s="210"/>
@@ -19854,6 +20280,12 @@
       <c r="B175" s="276" t="s">
         <v>1121</v>
       </c>
+      <c r="E175" s="571" t="s">
+        <v>744</v>
+      </c>
+      <c r="F175" s="577">
+        <v>25000</v>
+      </c>
       <c r="U175" s="243" t="str">
         <f>IF(OR(U157="Decline",U164="Decline",U169="Decline"),"Decline","Accept")</f>
         <v>Decline</v>
@@ -19883,6 +20315,12 @@
       <c r="B176" s="276" t="s">
         <v>1122</v>
       </c>
+      <c r="E176" s="571" t="s">
+        <v>746</v>
+      </c>
+      <c r="F176" s="577">
+        <v>50000</v>
+      </c>
       <c r="AE176" s="211"/>
       <c r="AF176" s="210"/>
       <c r="AG176" s="373"/>
@@ -19907,6 +20345,12 @@
       </c>
       <c r="B177" s="276" t="s">
         <v>1123</v>
+      </c>
+      <c r="E177" s="571" t="s">
+        <v>748</v>
+      </c>
+      <c r="F177" s="577">
+        <v>10000</v>
       </c>
       <c r="O177" s="238" t="s">
         <v>950</v>
@@ -19938,6 +20382,12 @@
       <c r="B178" s="276" t="s">
         <v>1125</v>
       </c>
+      <c r="E178" s="571" t="s">
+        <v>751</v>
+      </c>
+      <c r="F178" s="577">
+        <v>2500</v>
+      </c>
       <c r="O178" s="151" t="s">
         <v>655</v>
       </c>
@@ -19979,6 +20429,12 @@
       <c r="B179" s="276" t="s">
         <v>1124</v>
       </c>
+      <c r="E179" s="571" t="s">
+        <v>754</v>
+      </c>
+      <c r="F179" s="577">
+        <v>5000</v>
+      </c>
       <c r="O179" s="173" t="s">
         <v>873</v>
       </c>
@@ -20020,6 +20476,12 @@
       </c>
       <c r="B180" s="276" t="s">
         <v>1109</v>
+      </c>
+      <c r="E180" s="571" t="s">
+        <v>755</v>
+      </c>
+      <c r="F180" s="577">
+        <v>2500</v>
       </c>
       <c r="O180" s="173" t="s">
         <v>1398</v>
@@ -20060,6 +20522,12 @@
       <c r="B181" s="276" t="s">
         <v>1126</v>
       </c>
+      <c r="E181" s="571" t="s">
+        <v>759</v>
+      </c>
+      <c r="F181" s="577">
+        <v>25000</v>
+      </c>
       <c r="O181" s="173" t="s">
         <v>1399</v>
       </c>
@@ -20098,6 +20566,12 @@
       <c r="B182" s="276" t="s">
         <v>1127</v>
       </c>
+      <c r="E182" s="571" t="s">
+        <v>763</v>
+      </c>
+      <c r="F182" s="577" t="s">
+        <v>936</v>
+      </c>
       <c r="O182" s="173" t="s">
         <v>1400</v>
       </c>
@@ -20136,6 +20610,12 @@
       <c r="B183" s="276" t="s">
         <v>1128</v>
       </c>
+      <c r="E183" s="571" t="s">
+        <v>766</v>
+      </c>
+      <c r="F183" s="574" t="s">
+        <v>1424</v>
+      </c>
       <c r="R183" s="173" t="s">
         <v>954</v>
       </c>
@@ -20161,6 +20641,12 @@
       </c>
     </row>
     <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E184" s="571" t="s">
+        <v>769</v>
+      </c>
+      <c r="F184" s="577">
+        <v>2000000</v>
+      </c>
       <c r="R184" s="173" t="s">
         <v>1377</v>
       </c>
@@ -20186,6 +20672,10 @@
       </c>
     </row>
     <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E185" s="571" t="s">
+        <v>774</v>
+      </c>
+      <c r="F185" s="577"/>
       <c r="R185" s="173" t="s">
         <v>955</v>
       </c>
@@ -20211,6 +20701,12 @@
       </c>
     </row>
     <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E186" s="571" t="s">
+        <v>777</v>
+      </c>
+      <c r="F186" s="572" t="s">
+        <v>1425</v>
+      </c>
       <c r="R186" s="173" t="s">
         <v>956</v>
       </c>
@@ -20236,6 +20732,10 @@
       </c>
     </row>
     <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E187" s="571" t="s">
+        <v>782</v>
+      </c>
+      <c r="F187" s="576"/>
       <c r="R187" s="173" t="s">
         <v>944</v>
       </c>
@@ -20261,6 +20761,10 @@
       </c>
     </row>
     <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E188" s="571" t="s">
+        <v>785</v>
+      </c>
+      <c r="F188" s="576"/>
       <c r="R188" s="173" t="s">
         <v>949</v>
       </c>
@@ -20286,6 +20790,12 @@
       </c>
     </row>
     <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E189" s="571" t="s">
+        <v>790</v>
+      </c>
+      <c r="F189" s="576">
+        <v>25000</v>
+      </c>
       <c r="R189" s="173" t="s">
         <v>223</v>
       </c>
@@ -20311,6 +20821,10 @@
       </c>
     </row>
     <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E190" s="571" t="s">
+        <v>795</v>
+      </c>
+      <c r="F190" s="576"/>
       <c r="R190" s="173" t="s">
         <v>239</v>
       </c>
@@ -20337,6 +20851,10 @@
       </c>
     </row>
     <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E191" s="571" t="s">
+        <v>801</v>
+      </c>
+      <c r="F191" s="576"/>
       <c r="J191" s="263">
         <v>1000230</v>
       </c>
@@ -20364,6 +20882,10 @@
       </c>
     </row>
     <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="E192" s="571" t="s">
+        <v>558</v>
+      </c>
+      <c r="F192" s="576"/>
       <c r="J192" s="266" t="s">
         <v>762</v>
       </c>
@@ -20403,7 +20925,11 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E193" s="571" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F193" s="577"/>
       <c r="J193" s="265"/>
       <c r="K193" s="265"/>
       <c r="L193" s="265"/>
@@ -20441,7 +20967,13 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E194" s="571" t="s">
+        <v>811</v>
+      </c>
+      <c r="F194" s="574" t="s">
+        <v>167</v>
+      </c>
       <c r="J194" s="265"/>
       <c r="K194" s="265"/>
       <c r="L194" s="265"/>
@@ -20489,7 +21021,11 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E195" s="571" t="s">
+        <v>813</v>
+      </c>
+      <c r="F195" s="576"/>
       <c r="J195" s="263">
         <v>1000240</v>
       </c>
@@ -20533,7 +21069,11 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E196" s="571" t="s">
+        <v>815</v>
+      </c>
+      <c r="F196" s="576"/>
       <c r="J196" s="263">
         <v>1000250</v>
       </c>
@@ -20573,7 +21113,11 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E197" s="571" t="s">
+        <v>817</v>
+      </c>
+      <c r="F197" s="576"/>
       <c r="J197" s="263">
         <v>1000260</v>
       </c>
@@ -20613,7 +21157,11 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E198" s="571" t="s">
+        <v>818</v>
+      </c>
+      <c r="F198" s="576"/>
       <c r="J198" s="263">
         <v>1000270</v>
       </c>
@@ -20668,7 +21216,13 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E199" s="571" t="s">
+        <v>819</v>
+      </c>
+      <c r="F199" s="576" t="s">
+        <v>936</v>
+      </c>
       <c r="J199" s="263">
         <v>1000280</v>
       </c>
@@ -20718,7 +21272,13 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E200" s="571" t="s">
+        <v>636</v>
+      </c>
+      <c r="F200" s="576" t="s">
+        <v>936</v>
+      </c>
       <c r="J200" s="263" t="s">
         <v>800</v>
       </c>
@@ -20758,7 +21318,13 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E201" s="571" t="s">
+        <v>572</v>
+      </c>
+      <c r="F201" s="576" t="s">
+        <v>936</v>
+      </c>
       <c r="J201" s="265"/>
       <c r="K201" s="265"/>
       <c r="L201" s="265"/>
@@ -20799,7 +21365,13 @@
         <v>Tenant's Improvements</v>
       </c>
     </row>
-    <row r="202" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E202" s="571" t="s">
+        <v>825</v>
+      </c>
+      <c r="F202" s="576" t="s">
+        <v>936</v>
+      </c>
       <c r="J202" s="265"/>
       <c r="K202" s="265"/>
       <c r="L202" s="265"/>
@@ -20835,7 +21407,13 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E203" s="571" t="s">
+        <v>828</v>
+      </c>
+      <c r="F203" s="576" t="s">
+        <v>898</v>
+      </c>
       <c r="J203" s="265"/>
       <c r="K203" s="265"/>
       <c r="L203" s="265"/>
@@ -20862,7 +21440,11 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E204" s="571" t="s">
+        <v>829</v>
+      </c>
+      <c r="F204" s="576"/>
       <c r="J204" s="265"/>
       <c r="K204" s="265"/>
       <c r="L204" s="265"/>
@@ -20900,7 +21482,11 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E205" s="571" t="s">
+        <v>832</v>
+      </c>
+      <c r="F205" s="576"/>
       <c r="J205" s="265"/>
       <c r="K205" s="265"/>
       <c r="L205" s="265"/>
@@ -20939,7 +21525,11 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E206" s="571" t="s">
+        <v>567</v>
+      </c>
+      <c r="F206" s="576"/>
       <c r="J206" s="265"/>
       <c r="K206" s="265"/>
       <c r="L206" s="265"/>
@@ -20974,7 +21564,13 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E207" s="571" t="s">
+        <v>836</v>
+      </c>
+      <c r="F207" s="577">
+        <v>2500</v>
+      </c>
       <c r="O207" s="173" t="s">
         <v>782</v>
       </c>
@@ -21007,7 +21603,13 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="E208" s="571" t="s">
+        <v>839</v>
+      </c>
+      <c r="F208" s="572" t="s">
+        <v>970</v>
+      </c>
       <c r="O208" s="173" t="s">
         <v>785</v>
       </c>
@@ -21039,7 +21641,13 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E209" s="571" t="s">
+        <v>842</v>
+      </c>
+      <c r="F209" s="572" t="s">
+        <v>394</v>
+      </c>
       <c r="O209" s="173" t="s">
         <v>790</v>
       </c>
@@ -21071,7 +21679,11 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E210" s="571" t="s">
+        <v>845</v>
+      </c>
+      <c r="F210" s="572"/>
       <c r="R210" s="209">
         <v>10000</v>
       </c>
@@ -21099,7 +21711,13 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E211" s="571" t="s">
+        <v>847</v>
+      </c>
+      <c r="F211" s="578">
+        <v>2</v>
+      </c>
       <c r="O211" s="173" t="s">
         <v>959</v>
       </c>
@@ -21134,7 +21752,13 @@
         <v xml:space="preserve">Equipment  </v>
       </c>
     </row>
-    <row r="212" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E212" s="571" t="s">
+        <v>849</v>
+      </c>
+      <c r="F212" s="572" t="s">
+        <v>394</v>
+      </c>
       <c r="R212" s="209">
         <v>100000</v>
       </c>
@@ -21162,7 +21786,13 @@
         <v>Premium quoted</v>
       </c>
     </row>
-    <row r="213" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E213" s="571" t="s">
+        <v>854</v>
+      </c>
+      <c r="F213" s="572" t="s">
+        <v>783</v>
+      </c>
       <c r="O213" s="274" t="s">
         <v>903</v>
       </c>
@@ -21198,7 +21828,13 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E214" s="571" t="s">
+        <v>857</v>
+      </c>
+      <c r="F214" s="572" t="s">
+        <v>855</v>
+      </c>
       <c r="O214" s="274" t="s">
         <v>904</v>
       </c>
@@ -21228,7 +21864,13 @@
         <v>Commission rate</v>
       </c>
     </row>
-    <row r="215" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E215" s="571" t="s">
+        <v>860</v>
+      </c>
+      <c r="F215" s="572" t="s">
+        <v>858</v>
+      </c>
       <c r="O215" s="274" t="s">
         <v>906</v>
       </c>
@@ -21264,7 +21906,13 @@
         <v>Minimum retained premium</v>
       </c>
     </row>
-    <row r="216" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E216" s="571" t="s">
+        <v>863</v>
+      </c>
+      <c r="F216" s="572" t="s">
+        <v>219</v>
+      </c>
       <c r="O216" s="274" t="s">
         <v>908</v>
       </c>
@@ -21301,7 +21949,13 @@
       </c>
       <c r="AN216" s="272"/>
     </row>
-    <row r="217" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E217" s="571" t="s">
+        <v>868</v>
+      </c>
+      <c r="F217" s="572" t="s">
+        <v>596</v>
+      </c>
       <c r="T217" s="209"/>
       <c r="U217" s="274"/>
       <c r="V217" s="272"/>
@@ -21329,7 +21983,13 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E218" s="571" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F218" s="572">
+        <v>2010</v>
+      </c>
       <c r="O218" s="274"/>
       <c r="P218" s="274"/>
       <c r="Q218" s="274"/>
@@ -21348,7 +22008,11 @@
       <c r="AF218" s="210"/>
       <c r="AG218" s="373"/>
     </row>
-    <row r="219" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E219" s="571" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F219" s="572"/>
       <c r="O219" s="238" t="s">
         <v>1280</v>
       </c>
@@ -21368,7 +22032,11 @@
       <c r="AF219" s="210"/>
       <c r="AG219" s="373"/>
     </row>
-    <row r="220" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E220" s="571" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F220" s="572"/>
       <c r="O220" s="288" t="s">
         <v>655</v>
       </c>
@@ -21397,7 +22065,11 @@
       <c r="AF220" s="210"/>
       <c r="AG220" s="373"/>
     </row>
-    <row r="221" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E221" s="571" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F221" s="572"/>
       <c r="O221" s="173" t="s">
         <v>795</v>
       </c>
@@ -21427,7 +22099,11 @@
       <c r="AF221" s="210"/>
       <c r="AG221" s="373"/>
     </row>
-    <row r="222" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E222" s="571" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F222" s="572"/>
       <c r="O222" s="274"/>
       <c r="P222" s="274"/>
       <c r="Q222" s="274"/>
@@ -21450,7 +22126,11 @@
       <c r="AF222" s="210"/>
       <c r="AG222" s="373"/>
     </row>
-    <row r="223" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E223" s="571" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F223" s="572"/>
       <c r="O223" s="274" t="s">
         <v>903</v>
       </c>
@@ -21478,7 +22158,11 @@
       <c r="AF223" s="210"/>
       <c r="AG223" s="373"/>
     </row>
-    <row r="224" spans="15:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E224" s="571" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F224" s="572"/>
       <c r="O224" s="274" t="s">
         <v>904</v>
       </c>
@@ -21506,7 +22190,11 @@
       <c r="AF224" s="210"/>
       <c r="AG224" s="373"/>
     </row>
-    <row r="225" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E225" s="571" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F225" s="572"/>
       <c r="O225" s="274" t="s">
         <v>906</v>
       </c>
@@ -21534,7 +22222,11 @@
       <c r="AF225" s="210"/>
       <c r="AG225" s="373"/>
     </row>
-    <row r="226" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E226" s="571" t="s">
+        <v>870</v>
+      </c>
+      <c r="F226" s="572"/>
       <c r="O226" s="274" t="s">
         <v>908</v>
       </c>
@@ -21556,7 +22248,13 @@
       <c r="AF226" s="210"/>
       <c r="AG226" s="373"/>
     </row>
-    <row r="227" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E227" s="571" t="s">
+        <v>873</v>
+      </c>
+      <c r="F227" s="572" t="s">
+        <v>369</v>
+      </c>
       <c r="R227" s="209">
         <v>50000</v>
       </c>
@@ -21567,7 +22265,13 @@
       <c r="AF227" s="210"/>
       <c r="AG227" s="373"/>
     </row>
-    <row r="228" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E228" s="571" t="s">
+        <v>877</v>
+      </c>
+      <c r="F228" s="572" t="s">
+        <v>874</v>
+      </c>
       <c r="R228" s="209">
         <v>100000</v>
       </c>
@@ -21578,7 +22282,13 @@
       <c r="AF228" s="210"/>
       <c r="AG228" s="373"/>
     </row>
-    <row r="229" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E229" s="571" t="s">
+        <v>880</v>
+      </c>
+      <c r="F229" s="572" t="s">
+        <v>369</v>
+      </c>
       <c r="R229" s="209">
         <v>250000</v>
       </c>
@@ -21598,7 +22308,11 @@
       <c r="AF229" s="210"/>
       <c r="AG229" s="373"/>
     </row>
-    <row r="230" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E230" s="571" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F230" s="572"/>
       <c r="R230" s="274"/>
       <c r="S230" s="274"/>
       <c r="T230" s="274"/>
@@ -21614,7 +22328,11 @@
       <c r="AF230" s="210"/>
       <c r="AG230" s="373"/>
     </row>
-    <row r="231" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E231" s="571" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F231" s="572"/>
       <c r="O231" s="274"/>
       <c r="P231" s="274"/>
       <c r="Q231" s="274"/>
@@ -21633,7 +22351,11 @@
       <c r="AF231" s="210"/>
       <c r="AG231" s="373"/>
     </row>
-    <row r="232" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E232" s="571" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F232" s="572"/>
       <c r="O232" s="274"/>
       <c r="P232" s="274"/>
       <c r="Q232" s="274"/>
@@ -21652,7 +22374,11 @@
       <c r="AF232" s="210"/>
       <c r="AG232" s="373"/>
     </row>
-    <row r="233" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E233" s="571" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F233" s="572"/>
       <c r="O233" s="238" t="s">
         <v>616</v>
       </c>
@@ -21662,7 +22388,11 @@
       <c r="AF233" s="210"/>
       <c r="AG233" s="373"/>
     </row>
-    <row r="234" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E234" s="571" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F234" s="572"/>
       <c r="O234" s="151" t="s">
         <v>655</v>
       </c>
@@ -21683,7 +22413,11 @@
       <c r="AF234" s="210"/>
       <c r="AG234" s="373"/>
     </row>
-    <row r="235" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E235" s="571" t="s">
+        <v>881</v>
+      </c>
+      <c r="F235" s="572"/>
       <c r="O235" s="173" t="s">
         <v>616</v>
       </c>
@@ -21707,7 +22441,13 @@
       <c r="AF235" s="210"/>
       <c r="AG235" s="373"/>
     </row>
-    <row r="236" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E236" s="571" t="s">
+        <v>884</v>
+      </c>
+      <c r="F236" s="572">
+        <v>50000</v>
+      </c>
       <c r="Q236" s="250"/>
       <c r="R236" s="175" t="s">
         <v>749</v>
@@ -21720,7 +22460,11 @@
       <c r="AF236" s="210"/>
       <c r="AG236" s="373"/>
     </row>
-    <row r="237" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E237" s="571" t="s">
+        <v>627</v>
+      </c>
+      <c r="F237" s="572"/>
       <c r="R237" s="175" t="s">
         <v>922</v>
       </c>
@@ -21732,7 +22476,11 @@
       <c r="AF237" s="210"/>
       <c r="AG237" s="373"/>
     </row>
-    <row r="238" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E238" s="571" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F238" s="572"/>
       <c r="R238" s="175"/>
       <c r="S238" s="262"/>
       <c r="T238" s="175"/>
@@ -21740,7 +22488,11 @@
       <c r="AF238" s="210"/>
       <c r="AG238" s="373"/>
     </row>
-    <row r="239" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E239" s="571" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F239" s="572"/>
       <c r="O239" s="238" t="s">
         <v>960</v>
       </c>
@@ -21750,7 +22502,11 @@
       <c r="AF239" s="210"/>
       <c r="AG239" s="373"/>
     </row>
-    <row r="240" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E240" s="571" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F240" s="572"/>
       <c r="O240" s="151" t="s">
         <v>655</v>
       </c>
@@ -21771,7 +22527,11 @@
       <c r="AF240" s="210"/>
       <c r="AG240" s="373"/>
     </row>
-    <row r="241" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E241" s="571" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F241" s="572"/>
       <c r="O241" s="173" t="s">
         <v>960</v>
       </c>
@@ -21793,7 +22553,11 @@
       <c r="AF241" s="210"/>
       <c r="AG241" s="373"/>
     </row>
-    <row r="242" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E242" s="571" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F242" s="572"/>
       <c r="Q242" s="200"/>
       <c r="R242" s="173" t="s">
         <v>579</v>
@@ -21806,7 +22570,11 @@
       <c r="AF242" s="210"/>
       <c r="AG242" s="373"/>
     </row>
-    <row r="243" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E243" s="571" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F243" s="572"/>
       <c r="Q243" s="200"/>
       <c r="R243" s="173" t="s">
         <v>961</v>
@@ -21819,7 +22587,11 @@
       <c r="AF243" s="210"/>
       <c r="AG243" s="373"/>
     </row>
-    <row r="244" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E244" s="571" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F244" s="572"/>
       <c r="Q244" s="361"/>
       <c r="R244" s="173" t="s">
         <v>932</v>
@@ -21832,7 +22604,11 @@
       <c r="AF244" s="210"/>
       <c r="AG244" s="373"/>
     </row>
-    <row r="245" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E245" s="571" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F245" s="572"/>
       <c r="R245" s="173" t="s">
         <v>922</v>
       </c>
@@ -21843,17 +22619,29 @@
       <c r="AF245" s="210"/>
       <c r="AG245" s="373"/>
     </row>
-    <row r="246" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E246" s="571" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F246" s="572"/>
       <c r="AE246" s="211"/>
       <c r="AF246" s="210"/>
       <c r="AG246" s="373"/>
     </row>
-    <row r="247" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E247" s="571" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F247" s="572"/>
       <c r="AE247" s="211"/>
       <c r="AF247" s="210"/>
       <c r="AG247" s="373"/>
     </row>
-    <row r="248" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E248" s="571" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F248" s="572"/>
       <c r="O248" s="238" t="s">
         <v>962</v>
       </c>
@@ -21863,7 +22651,11 @@
       <c r="AF248" s="210"/>
       <c r="AG248" s="373"/>
     </row>
-    <row r="249" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E249" s="571" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F249" s="572"/>
       <c r="O249" s="151" t="s">
         <v>655</v>
       </c>
@@ -21884,7 +22676,11 @@
       <c r="AF249" s="210"/>
       <c r="AG249" s="373"/>
     </row>
-    <row r="250" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E250" s="571" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F250" s="572"/>
       <c r="O250" s="173" t="s">
         <v>963</v>
       </c>
@@ -21907,7 +22703,11 @@
       <c r="AF250" s="210"/>
       <c r="AG250" s="373"/>
     </row>
-    <row r="251" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E251" s="571" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F251" s="572"/>
       <c r="Q251" s="131"/>
       <c r="R251" s="173" t="s">
         <v>964</v>
@@ -21920,7 +22720,11 @@
       <c r="AF251" s="210"/>
       <c r="AG251" s="373"/>
     </row>
-    <row r="252" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E252" s="571" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F252" s="572"/>
       <c r="R252" s="173" t="s">
         <v>965</v>
       </c>
@@ -21931,7 +22735,11 @@
       <c r="AF252" s="210"/>
       <c r="AG252" s="373"/>
     </row>
-    <row r="253" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E253" s="571" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F253" s="572"/>
       <c r="R253" s="173" t="s">
         <v>966</v>
       </c>
@@ -21942,7 +22750,11 @@
       <c r="AF253" s="210"/>
       <c r="AG253" s="373"/>
     </row>
-    <row r="254" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E254" s="571" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F254" s="572"/>
       <c r="R254" s="173" t="s">
         <v>967</v>
       </c>
@@ -21953,18 +22765,30 @@
       <c r="AF254" s="210"/>
       <c r="AG254" s="373"/>
     </row>
-    <row r="255" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E255" s="571" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F255" s="572"/>
       <c r="S255" s="175"/>
       <c r="AE255" s="211"/>
       <c r="AF255" s="210"/>
       <c r="AG255" s="373"/>
     </row>
-    <row r="256" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E256" s="571" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F256" s="572"/>
       <c r="AE256" s="211"/>
       <c r="AF256" s="210"/>
       <c r="AG256" s="373"/>
     </row>
-    <row r="257" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E257" s="571" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F257" s="572"/>
       <c r="O257" s="238" t="s">
         <v>567</v>
       </c>
@@ -21974,7 +22798,11 @@
       <c r="AF257" s="210"/>
       <c r="AG257" s="373"/>
     </row>
-    <row r="258" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E258" s="571" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F258" s="572"/>
       <c r="O258" s="151" t="s">
         <v>655</v>
       </c>
@@ -21995,7 +22823,11 @@
       <c r="AF258" s="210"/>
       <c r="AG258" s="373"/>
     </row>
-    <row r="259" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E259" s="571" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F259" s="572"/>
       <c r="O259" s="173" t="s">
         <v>567</v>
       </c>
@@ -22018,7 +22850,11 @@
       <c r="AF259" s="210"/>
       <c r="AG259" s="373"/>
     </row>
-    <row r="260" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E260" s="571" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F260" s="572"/>
       <c r="Q260" s="131"/>
       <c r="R260" s="173">
         <v>500</v>
@@ -22031,7 +22867,11 @@
       <c r="AF260" s="210"/>
       <c r="AG260" s="373"/>
     </row>
-    <row r="261" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E261" s="571" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F261" s="572"/>
       <c r="R261" s="173">
         <v>1000</v>
       </c>
@@ -22042,7 +22882,11 @@
       <c r="AF261" s="210"/>
       <c r="AG261" s="373"/>
     </row>
-    <row r="262" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E262" s="571" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F262" s="572"/>
       <c r="R262" s="173">
         <v>1500</v>
       </c>
@@ -22053,7 +22897,11 @@
       <c r="AF262" s="210"/>
       <c r="AG262" s="373"/>
     </row>
-    <row r="263" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E263" s="571" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F263" s="572"/>
       <c r="R263" s="173">
         <v>2000</v>
       </c>
@@ -22064,7 +22912,11 @@
       <c r="AF263" s="210"/>
       <c r="AG263" s="373"/>
     </row>
-    <row r="264" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E264" s="571" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F264" s="572"/>
       <c r="R264" s="173">
         <v>2500</v>
       </c>
@@ -22075,7 +22927,11 @@
       <c r="AF264" s="210"/>
       <c r="AG264" s="373"/>
     </row>
-    <row r="265" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E265" s="571" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F265" s="572"/>
       <c r="R265" s="173">
         <v>5000</v>
       </c>
@@ -22086,7 +22942,11 @@
       <c r="AF265" s="210"/>
       <c r="AG265" s="373"/>
     </row>
-    <row r="266" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E266" s="571" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F266" s="572"/>
       <c r="R266" s="173">
         <v>7500</v>
       </c>
@@ -22097,7 +22957,11 @@
       <c r="AF266" s="210"/>
       <c r="AG266" s="373"/>
     </row>
-    <row r="267" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E267" s="571" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F267" s="572"/>
       <c r="R267" s="173">
         <v>10000</v>
       </c>
@@ -22108,22 +22972,24 @@
       <c r="AF267" s="210"/>
       <c r="AG267" s="373"/>
     </row>
-    <row r="268" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="E268" s="571"/>
+      <c r="F268" s="572"/>
       <c r="AE268" s="211"/>
       <c r="AF268" s="210"/>
       <c r="AG268" s="373"/>
     </row>
-    <row r="269" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:33" x14ac:dyDescent="0.25">
       <c r="AE269" s="211"/>
       <c r="AF269" s="210"/>
       <c r="AG269" s="373"/>
     </row>
-    <row r="270" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:33" x14ac:dyDescent="0.25">
       <c r="AE270" s="211"/>
       <c r="AF270" s="210"/>
       <c r="AG270" s="373"/>
     </row>
-    <row r="271" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:33" x14ac:dyDescent="0.25">
       <c r="O271" s="238" t="s">
         <v>968</v>
       </c>
@@ -22133,7 +22999,7 @@
       <c r="AF271" s="210"/>
       <c r="AG271" s="373"/>
     </row>
-    <row r="272" spans="15:33" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:33" x14ac:dyDescent="0.25">
       <c r="O272" s="151" t="s">
         <v>655</v>
       </c>
@@ -22960,45 +23826,45 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
   </mergeCells>
   <conditionalFormatting sqref="J80:J124 J9:J26 J50:J51">
-    <cfRule type="containsBlanks" dxfId="17" priority="46">
+    <cfRule type="containsBlanks" dxfId="8" priority="46">
       <formula>LEN(TRIM(J9))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="48" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J79">
-    <cfRule type="containsBlanks" dxfId="14" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(J52))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J49">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(J27))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25972,351 +26838,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="414" t="s">
+      <c r="A1" s="505" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="415"/>
-      <c r="C1" s="415"/>
-      <c r="D1" s="415"/>
-      <c r="E1" s="415"/>
-      <c r="F1" s="415"/>
-      <c r="G1" s="415"/>
-      <c r="H1" s="415"/>
-      <c r="I1" s="415"/>
-      <c r="J1" s="415"/>
-      <c r="K1" s="416"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
+      <c r="K1" s="507"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="417"/>
-      <c r="B2" s="418"/>
-      <c r="C2" s="418"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="418"/>
+      <c r="A2" s="508"/>
+      <c r="B2" s="509"/>
+      <c r="C2" s="509"/>
+      <c r="D2" s="509"/>
+      <c r="E2" s="509"/>
+      <c r="F2" s="509"/>
+      <c r="G2" s="509"/>
+      <c r="H2" s="509"/>
+      <c r="I2" s="509"/>
+      <c r="J2" s="509"/>
       <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="419" t="s">
+      <c r="A3" s="451" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="420"/>
-      <c r="C3" s="421" t="s">
+      <c r="B3" s="446"/>
+      <c r="C3" s="510" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="421"/>
-      <c r="E3" s="421"/>
-      <c r="F3" s="421"/>
-      <c r="G3" s="421"/>
-      <c r="H3" s="421"/>
-      <c r="I3" s="421"/>
-      <c r="J3" s="421"/>
-      <c r="K3" s="422"/>
+      <c r="D3" s="510"/>
+      <c r="E3" s="510"/>
+      <c r="F3" s="510"/>
+      <c r="G3" s="510"/>
+      <c r="H3" s="510"/>
+      <c r="I3" s="510"/>
+      <c r="J3" s="510"/>
+      <c r="K3" s="511"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="423" t="s">
+      <c r="A4" s="493" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="420"/>
-      <c r="C4" s="424" t="s">
+      <c r="B4" s="446"/>
+      <c r="C4" s="502" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="420"/>
-      <c r="E4" s="420"/>
-      <c r="F4" s="420"/>
-      <c r="G4" s="420"/>
-      <c r="H4" s="420"/>
-      <c r="I4" s="420"/>
-      <c r="J4" s="420"/>
-      <c r="K4" s="425"/>
+      <c r="D4" s="446"/>
+      <c r="E4" s="446"/>
+      <c r="F4" s="446"/>
+      <c r="G4" s="446"/>
+      <c r="H4" s="446"/>
+      <c r="I4" s="446"/>
+      <c r="J4" s="446"/>
+      <c r="K4" s="447"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="423" t="s">
+      <c r="A5" s="493" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="420"/>
-      <c r="C5" s="426" t="s">
+      <c r="B5" s="446"/>
+      <c r="C5" s="501" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="427"/>
-      <c r="E5" s="427"/>
-      <c r="F5" s="427"/>
-      <c r="G5" s="427"/>
-      <c r="H5" s="427"/>
-      <c r="I5" s="427"/>
-      <c r="J5" s="427"/>
-      <c r="K5" s="428"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="438"/>
+      <c r="F5" s="438"/>
+      <c r="G5" s="438"/>
+      <c r="H5" s="438"/>
+      <c r="I5" s="438"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="439"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="424">
+      <c r="B6" s="502">
         <v>647463429</v>
       </c>
-      <c r="C6" s="427"/>
-      <c r="D6" s="427"/>
-      <c r="E6" s="428"/>
+      <c r="C6" s="438"/>
+      <c r="D6" s="438"/>
+      <c r="E6" s="439"/>
       <c r="F6" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="429" t="s">
+      <c r="G6" s="503" t="s">
         <v>333</v>
       </c>
-      <c r="H6" s="420"/>
-      <c r="I6" s="420"/>
-      <c r="J6" s="420"/>
-      <c r="K6" s="425"/>
+      <c r="H6" s="446"/>
+      <c r="I6" s="446"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="447"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="423" t="s">
+      <c r="A7" s="493" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="420"/>
-      <c r="C7" s="430" t="s">
+      <c r="B7" s="446"/>
+      <c r="C7" s="504" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="420"/>
-      <c r="E7" s="420"/>
-      <c r="F7" s="420"/>
-      <c r="G7" s="420"/>
-      <c r="H7" s="420"/>
-      <c r="I7" s="420"/>
-      <c r="J7" s="420"/>
-      <c r="K7" s="425"/>
+      <c r="D7" s="446"/>
+      <c r="E7" s="446"/>
+      <c r="F7" s="446"/>
+      <c r="G7" s="446"/>
+      <c r="H7" s="446"/>
+      <c r="I7" s="446"/>
+      <c r="J7" s="446"/>
+      <c r="K7" s="447"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="423" t="s">
+      <c r="A8" s="493" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="420"/>
-      <c r="C8" s="431"/>
-      <c r="D8" s="432"/>
-      <c r="E8" s="432"/>
-      <c r="F8" s="432"/>
+      <c r="B8" s="446"/>
+      <c r="C8" s="494"/>
+      <c r="D8" s="495"/>
+      <c r="E8" s="495"/>
+      <c r="F8" s="495"/>
       <c r="G8" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="433"/>
-      <c r="I8" s="433"/>
-      <c r="J8" s="433"/>
-      <c r="K8" s="434"/>
+      <c r="H8" s="496"/>
+      <c r="I8" s="496"/>
+      <c r="J8" s="496"/>
+      <c r="K8" s="497"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="435" t="s">
+      <c r="A9" s="498" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="420"/>
+      <c r="B9" s="446"/>
       <c r="C9" s="100"/>
-      <c r="D9" s="436" t="s">
+      <c r="D9" s="499" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="437"/>
-      <c r="F9" s="437"/>
+      <c r="E9" s="422"/>
+      <c r="F9" s="422"/>
       <c r="G9" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="438" t="s">
+      <c r="H9" s="500" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="420"/>
-      <c r="J9" s="420"/>
-      <c r="K9" s="425"/>
+      <c r="I9" s="446"/>
+      <c r="J9" s="446"/>
+      <c r="K9" s="447"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="449" t="s">
+      <c r="A10" s="470" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="450"/>
-      <c r="C10" s="450"/>
-      <c r="D10" s="450"/>
-      <c r="E10" s="450"/>
-      <c r="F10" s="450"/>
-      <c r="G10" s="450"/>
-      <c r="H10" s="450"/>
-      <c r="I10" s="450"/>
-      <c r="J10" s="450"/>
-      <c r="K10" s="451"/>
+      <c r="B10" s="436"/>
+      <c r="C10" s="436"/>
+      <c r="D10" s="436"/>
+      <c r="E10" s="436"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="436"/>
+      <c r="I10" s="436"/>
+      <c r="J10" s="436"/>
+      <c r="K10" s="437"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="452" t="s">
+      <c r="A11" s="471" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="453"/>
-      <c r="C11" s="453"/>
-      <c r="D11" s="453"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="453"/>
-      <c r="G11" s="453"/>
-      <c r="H11" s="453"/>
-      <c r="I11" s="453"/>
-      <c r="J11" s="453"/>
-      <c r="K11" s="454"/>
+      <c r="B11" s="425"/>
+      <c r="C11" s="425"/>
+      <c r="D11" s="425"/>
+      <c r="E11" s="425"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="425"/>
+      <c r="H11" s="425"/>
+      <c r="I11" s="425"/>
+      <c r="J11" s="425"/>
+      <c r="K11" s="426"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="455"/>
-      <c r="B12" s="427"/>
-      <c r="C12" s="427"/>
-      <c r="D12" s="427"/>
-      <c r="E12" s="427"/>
-      <c r="F12" s="427"/>
-      <c r="G12" s="427"/>
-      <c r="H12" s="427"/>
-      <c r="I12" s="427"/>
-      <c r="J12" s="427"/>
-      <c r="K12" s="428"/>
+      <c r="A12" s="472"/>
+      <c r="B12" s="438"/>
+      <c r="C12" s="438"/>
+      <c r="D12" s="438"/>
+      <c r="E12" s="438"/>
+      <c r="F12" s="438"/>
+      <c r="G12" s="438"/>
+      <c r="H12" s="438"/>
+      <c r="I12" s="438"/>
+      <c r="J12" s="438"/>
+      <c r="K12" s="439"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="456" t="s">
+      <c r="A13" s="473" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="450"/>
-      <c r="C13" s="450"/>
-      <c r="D13" s="450"/>
-      <c r="E13" s="457" t="s">
+      <c r="B13" s="436"/>
+      <c r="C13" s="436"/>
+      <c r="D13" s="436"/>
+      <c r="E13" s="474" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="458"/>
-      <c r="G13" s="458"/>
-      <c r="H13" s="458"/>
-      <c r="I13" s="458"/>
-      <c r="J13" s="458"/>
-      <c r="K13" s="459"/>
+      <c r="F13" s="475"/>
+      <c r="G13" s="475"/>
+      <c r="H13" s="475"/>
+      <c r="I13" s="475"/>
+      <c r="J13" s="475"/>
+      <c r="K13" s="476"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="103"/>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
       <c r="D14" s="99"/>
-      <c r="E14" s="460"/>
-      <c r="F14" s="461"/>
-      <c r="G14" s="461"/>
-      <c r="H14" s="461"/>
-      <c r="I14" s="461"/>
-      <c r="J14" s="461"/>
-      <c r="K14" s="462"/>
+      <c r="E14" s="477"/>
+      <c r="F14" s="478"/>
+      <c r="G14" s="478"/>
+      <c r="H14" s="478"/>
+      <c r="I14" s="478"/>
+      <c r="J14" s="478"/>
+      <c r="K14" s="479"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="463" t="s">
+      <c r="A15" s="480" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="464"/>
-      <c r="C15" s="464"/>
-      <c r="D15" s="464"/>
-      <c r="E15" s="464"/>
-      <c r="F15" s="464"/>
-      <c r="G15" s="464"/>
-      <c r="H15" s="464"/>
-      <c r="I15" s="464"/>
-      <c r="J15" s="464"/>
-      <c r="K15" s="465"/>
+      <c r="B15" s="429"/>
+      <c r="C15" s="429"/>
+      <c r="D15" s="429"/>
+      <c r="E15" s="429"/>
+      <c r="F15" s="429"/>
+      <c r="G15" s="429"/>
+      <c r="H15" s="429"/>
+      <c r="I15" s="429"/>
+      <c r="J15" s="429"/>
+      <c r="K15" s="481"/>
       <c r="O15" s="120" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="104"/>
-      <c r="B16" s="466"/>
-      <c r="C16" s="467"/>
+      <c r="B16" s="482"/>
+      <c r="C16" s="483"/>
       <c r="D16" s="104"/>
       <c r="E16" s="104"/>
       <c r="F16" s="103"/>
-      <c r="G16" s="468" t="s">
+      <c r="G16" s="445" t="s">
         <v>187</v>
       </c>
-      <c r="H16" s="469"/>
+      <c r="H16" s="484"/>
       <c r="I16" s="105"/>
-      <c r="J16" s="455"/>
-      <c r="K16" s="428"/>
+      <c r="J16" s="472"/>
+      <c r="K16" s="439"/>
       <c r="O16" s="120" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="470" t="s">
+      <c r="A17" s="485" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="450"/>
-      <c r="C17" s="450"/>
-      <c r="D17" s="450"/>
-      <c r="E17" s="450"/>
-      <c r="F17" s="450"/>
-      <c r="G17" s="450"/>
-      <c r="H17" s="450"/>
-      <c r="I17" s="450"/>
-      <c r="J17" s="450"/>
-      <c r="K17" s="451"/>
+      <c r="B17" s="436"/>
+      <c r="C17" s="436"/>
+      <c r="D17" s="436"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="436"/>
+      <c r="G17" s="436"/>
+      <c r="H17" s="436"/>
+      <c r="I17" s="436"/>
+      <c r="J17" s="436"/>
+      <c r="K17" s="437"/>
       <c r="O17" s="120" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="471">
+      <c r="A18" s="486">
         <v>20000000</v>
       </c>
-      <c r="B18" s="472"/>
-      <c r="C18" s="472"/>
-      <c r="D18" s="472"/>
-      <c r="E18" s="472"/>
-      <c r="F18" s="472"/>
-      <c r="G18" s="472"/>
-      <c r="H18" s="472"/>
-      <c r="I18" s="427"/>
-      <c r="J18" s="427"/>
-      <c r="K18" s="428"/>
+      <c r="B18" s="487"/>
+      <c r="C18" s="487"/>
+      <c r="D18" s="487"/>
+      <c r="E18" s="487"/>
+      <c r="F18" s="487"/>
+      <c r="G18" s="487"/>
+      <c r="H18" s="487"/>
+      <c r="I18" s="438"/>
+      <c r="J18" s="438"/>
+      <c r="K18" s="439"/>
     </row>
     <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="473" t="s">
+      <c r="A19" s="488" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="474"/>
-      <c r="C19" s="474"/>
-      <c r="D19" s="474"/>
-      <c r="E19" s="474"/>
+      <c r="B19" s="431"/>
+      <c r="C19" s="431"/>
+      <c r="D19" s="431"/>
+      <c r="E19" s="431"/>
       <c r="F19" s="106" t="s">
         <v>190</v>
       </c>
       <c r="G19" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="475" t="s">
+      <c r="H19" s="489" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="474"/>
-      <c r="J19" s="474"/>
-      <c r="K19" s="476"/>
+      <c r="I19" s="431"/>
+      <c r="J19" s="431"/>
+      <c r="K19" s="432"/>
       <c r="O19" s="120" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="477" t="s">
+      <c r="A20" s="490" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="478"/>
-      <c r="C20" s="478"/>
-      <c r="D20" s="478"/>
-      <c r="E20" s="478"/>
-      <c r="F20" s="478"/>
-      <c r="G20" s="478"/>
-      <c r="H20" s="478"/>
-      <c r="I20" s="478"/>
-      <c r="J20" s="478"/>
-      <c r="K20" s="479"/>
+      <c r="B20" s="491"/>
+      <c r="C20" s="491"/>
+      <c r="D20" s="491"/>
+      <c r="E20" s="491"/>
+      <c r="F20" s="491"/>
+      <c r="G20" s="491"/>
+      <c r="H20" s="491"/>
+      <c r="I20" s="491"/>
+      <c r="J20" s="491"/>
+      <c r="K20" s="492"/>
       <c r="O20" s="120" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="439" t="s">
+      <c r="A21" s="460" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="440"/>
-      <c r="C21" s="440"/>
-      <c r="D21" s="440"/>
+      <c r="B21" s="461"/>
+      <c r="C21" s="461"/>
+      <c r="D21" s="461"/>
       <c r="E21" s="108" t="s">
         <v>194</v>
       </c>
@@ -26324,103 +27190,103 @@
         <v>195</v>
       </c>
       <c r="G21" s="109"/>
-      <c r="H21" s="441" t="s">
+      <c r="H21" s="462" t="s">
         <v>196</v>
       </c>
-      <c r="I21" s="442"/>
-      <c r="J21" s="442"/>
-      <c r="K21" s="443"/>
+      <c r="I21" s="463"/>
+      <c r="J21" s="463"/>
+      <c r="K21" s="464"/>
       <c r="O21" s="120" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="447" t="s">
+      <c r="A22" s="468" t="s">
         <v>197</v>
       </c>
-      <c r="B22" s="448"/>
-      <c r="C22" s="448"/>
-      <c r="D22" s="448"/>
-      <c r="E22" s="448"/>
-      <c r="F22" s="448"/>
+      <c r="B22" s="469"/>
+      <c r="C22" s="469"/>
+      <c r="D22" s="469"/>
+      <c r="E22" s="469"/>
+      <c r="F22" s="469"/>
       <c r="G22" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="H22" s="444"/>
-      <c r="I22" s="445"/>
-      <c r="J22" s="445"/>
-      <c r="K22" s="446"/>
+      <c r="H22" s="465"/>
+      <c r="I22" s="466"/>
+      <c r="J22" s="466"/>
+      <c r="K22" s="467"/>
       <c r="O22" s="120" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="480" t="s">
+      <c r="A23" s="453" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="481"/>
-      <c r="C23" s="481"/>
-      <c r="D23" s="481"/>
-      <c r="E23" s="481"/>
-      <c r="F23" s="481"/>
-      <c r="G23" s="481"/>
-      <c r="H23" s="481"/>
-      <c r="I23" s="481"/>
-      <c r="J23" s="481"/>
-      <c r="K23" s="482"/>
+      <c r="B23" s="454"/>
+      <c r="C23" s="454"/>
+      <c r="D23" s="454"/>
+      <c r="E23" s="454"/>
+      <c r="F23" s="454"/>
+      <c r="G23" s="454"/>
+      <c r="H23" s="454"/>
+      <c r="I23" s="454"/>
+      <c r="J23" s="454"/>
+      <c r="K23" s="455"/>
       <c r="O23" s="120" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="483" t="s">
+      <c r="A24" s="456" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="464"/>
-      <c r="C24" s="484"/>
-      <c r="D24" s="485"/>
-      <c r="E24" s="483" t="s">
+      <c r="B24" s="429"/>
+      <c r="C24" s="457"/>
+      <c r="D24" s="458"/>
+      <c r="E24" s="456" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="464"/>
-      <c r="G24" s="484"/>
-      <c r="H24" s="486"/>
-      <c r="I24" s="483" t="s">
+      <c r="F24" s="429"/>
+      <c r="G24" s="457"/>
+      <c r="H24" s="459"/>
+      <c r="I24" s="456" t="s">
         <v>202</v>
       </c>
-      <c r="J24" s="464"/>
+      <c r="J24" s="429"/>
       <c r="K24" s="111"/>
     </row>
     <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="487"/>
-      <c r="B25" s="453"/>
-      <c r="C25" s="453"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="453"/>
-      <c r="F25" s="453"/>
-      <c r="G25" s="453"/>
-      <c r="H25" s="453"/>
-      <c r="I25" s="453"/>
-      <c r="J25" s="453"/>
-      <c r="K25" s="454"/>
+      <c r="A25" s="440"/>
+      <c r="B25" s="425"/>
+      <c r="C25" s="425"/>
+      <c r="D25" s="425"/>
+      <c r="E25" s="425"/>
+      <c r="F25" s="425"/>
+      <c r="G25" s="425"/>
+      <c r="H25" s="425"/>
+      <c r="I25" s="425"/>
+      <c r="J25" s="425"/>
+      <c r="K25" s="426"/>
       <c r="O25" s="120" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="488" t="s">
+      <c r="A26" s="435" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="489"/>
-      <c r="C26" s="490"/>
-      <c r="D26" s="491"/>
-      <c r="E26" s="453"/>
-      <c r="F26" s="453"/>
-      <c r="G26" s="453"/>
-      <c r="H26" s="453"/>
-      <c r="I26" s="453"/>
-      <c r="J26" s="453"/>
-      <c r="K26" s="454"/>
+      <c r="B26" s="441"/>
+      <c r="C26" s="442"/>
+      <c r="D26" s="424"/>
+      <c r="E26" s="425"/>
+      <c r="F26" s="425"/>
+      <c r="G26" s="425"/>
+      <c r="H26" s="425"/>
+      <c r="I26" s="425"/>
+      <c r="J26" s="425"/>
+      <c r="K26" s="426"/>
       <c r="O26" s="120" t="s">
         <v>225</v>
       </c>
@@ -26434,10 +27300,10 @@
       <c r="D27" s="113"/>
       <c r="E27" s="113"/>
       <c r="F27" s="113"/>
-      <c r="G27" s="492" t="s">
+      <c r="G27" s="443" t="s">
         <v>205</v>
       </c>
-      <c r="H27" s="493"/>
+      <c r="H27" s="444"/>
       <c r="I27" s="113"/>
       <c r="J27" s="113"/>
       <c r="K27" s="114"/>
@@ -26449,35 +27315,35 @@
       <c r="A28" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="B28" s="468" t="s">
+      <c r="B28" s="445" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="420"/>
-      <c r="D28" s="420"/>
-      <c r="E28" s="425"/>
+      <c r="C28" s="446"/>
+      <c r="D28" s="446"/>
+      <c r="E28" s="447"/>
       <c r="F28" s="67"/>
-      <c r="G28" s="494"/>
-      <c r="H28" s="495"/>
-      <c r="I28" s="496"/>
-      <c r="J28" s="453"/>
-      <c r="K28" s="454"/>
+      <c r="G28" s="448"/>
+      <c r="H28" s="449"/>
+      <c r="I28" s="434"/>
+      <c r="J28" s="425"/>
+      <c r="K28" s="426"/>
     </row>
     <row r="29" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="468" t="s">
+      <c r="B29" s="445" t="s">
         <v>236</v>
       </c>
-      <c r="C29" s="420"/>
-      <c r="D29" s="420"/>
-      <c r="E29" s="425"/>
+      <c r="C29" s="446"/>
+      <c r="D29" s="446"/>
+      <c r="E29" s="447"/>
       <c r="F29" s="67"/>
-      <c r="G29" s="494"/>
-      <c r="H29" s="495"/>
-      <c r="I29" s="497"/>
-      <c r="J29" s="453"/>
-      <c r="K29" s="454"/>
+      <c r="G29" s="448"/>
+      <c r="H29" s="449"/>
+      <c r="I29" s="450"/>
+      <c r="J29" s="425"/>
+      <c r="K29" s="426"/>
       <c r="O29" s="120" t="s">
         <v>227</v>
       </c>
@@ -26486,18 +27352,18 @@
       <c r="A30" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="498" t="s">
+      <c r="B30" s="421" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="437"/>
-      <c r="D30" s="437"/>
-      <c r="E30" s="499"/>
+      <c r="C30" s="422"/>
+      <c r="D30" s="422"/>
+      <c r="E30" s="423"/>
       <c r="F30" s="116"/>
-      <c r="G30" s="494"/>
-      <c r="H30" s="495"/>
-      <c r="I30" s="497"/>
-      <c r="J30" s="453"/>
-      <c r="K30" s="454"/>
+      <c r="G30" s="448"/>
+      <c r="H30" s="449"/>
+      <c r="I30" s="450"/>
+      <c r="J30" s="425"/>
+      <c r="K30" s="426"/>
       <c r="O30" s="120" t="s">
         <v>228</v>
       </c>
@@ -26506,76 +27372,76 @@
       <c r="A31" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="419" t="s">
+      <c r="B31" s="451" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="437"/>
-      <c r="D31" s="437"/>
-      <c r="E31" s="499"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="422"/>
+      <c r="E31" s="423"/>
       <c r="F31" s="118"/>
-      <c r="G31" s="500"/>
-      <c r="H31" s="495"/>
-      <c r="I31" s="497"/>
-      <c r="J31" s="453"/>
-      <c r="K31" s="454"/>
+      <c r="G31" s="452"/>
+      <c r="H31" s="449"/>
+      <c r="I31" s="450"/>
+      <c r="J31" s="425"/>
+      <c r="K31" s="426"/>
       <c r="O31" s="120" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="491"/>
-      <c r="B32" s="453"/>
-      <c r="C32" s="453"/>
-      <c r="D32" s="453"/>
-      <c r="E32" s="453"/>
-      <c r="F32" s="453"/>
-      <c r="G32" s="453"/>
-      <c r="H32" s="453"/>
-      <c r="I32" s="453"/>
-      <c r="J32" s="453"/>
-      <c r="K32" s="454"/>
+      <c r="A32" s="424"/>
+      <c r="B32" s="425"/>
+      <c r="C32" s="425"/>
+      <c r="D32" s="425"/>
+      <c r="E32" s="425"/>
+      <c r="F32" s="425"/>
+      <c r="G32" s="425"/>
+      <c r="H32" s="425"/>
+      <c r="I32" s="425"/>
+      <c r="J32" s="425"/>
+      <c r="K32" s="426"/>
       <c r="O32" s="120" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="501" t="s">
+      <c r="A33" s="433" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="476"/>
-      <c r="C33" s="496"/>
-      <c r="D33" s="453"/>
-      <c r="E33" s="453"/>
-      <c r="F33" s="453"/>
-      <c r="G33" s="453"/>
-      <c r="H33" s="453"/>
-      <c r="I33" s="453"/>
-      <c r="J33" s="453"/>
-      <c r="K33" s="454"/>
+      <c r="B33" s="432"/>
+      <c r="C33" s="434"/>
+      <c r="D33" s="425"/>
+      <c r="E33" s="425"/>
+      <c r="F33" s="425"/>
+      <c r="G33" s="425"/>
+      <c r="H33" s="425"/>
+      <c r="I33" s="425"/>
+      <c r="J33" s="425"/>
+      <c r="K33" s="426"/>
     </row>
     <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="498" t="s">
+      <c r="A34" s="421" t="s">
         <v>217</v>
       </c>
-      <c r="B34" s="437"/>
-      <c r="C34" s="437"/>
-      <c r="D34" s="437"/>
-      <c r="E34" s="437"/>
-      <c r="F34" s="437"/>
-      <c r="G34" s="437"/>
-      <c r="H34" s="499"/>
-      <c r="I34" s="491"/>
-      <c r="J34" s="453"/>
-      <c r="K34" s="454"/>
+      <c r="B34" s="422"/>
+      <c r="C34" s="422"/>
+      <c r="D34" s="422"/>
+      <c r="E34" s="422"/>
+      <c r="F34" s="422"/>
+      <c r="G34" s="422"/>
+      <c r="H34" s="423"/>
+      <c r="I34" s="424"/>
+      <c r="J34" s="425"/>
+      <c r="K34" s="426"/>
       <c r="O34" s="120" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="508"/>
-      <c r="B35" s="509"/>
-      <c r="C35" s="464"/>
-      <c r="D35" s="464"/>
+      <c r="A35" s="427"/>
+      <c r="B35" s="428"/>
+      <c r="C35" s="429"/>
+      <c r="D35" s="429"/>
       <c r="E35" s="113"/>
       <c r="F35" s="118"/>
       <c r="G35" s="113"/>
@@ -26588,55 +27454,55 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="503" t="s">
+      <c r="A36" s="415" t="s">
         <v>211</v>
       </c>
-      <c r="B36" s="504"/>
-      <c r="C36" s="504"/>
-      <c r="D36" s="504"/>
-      <c r="E36" s="504"/>
-      <c r="F36" s="504"/>
-      <c r="G36" s="453"/>
-      <c r="H36" s="453"/>
-      <c r="I36" s="453"/>
-      <c r="J36" s="453"/>
-      <c r="K36" s="454"/>
+      <c r="B36" s="416"/>
+      <c r="C36" s="416"/>
+      <c r="D36" s="416"/>
+      <c r="E36" s="416"/>
+      <c r="F36" s="416"/>
+      <c r="G36" s="425"/>
+      <c r="H36" s="425"/>
+      <c r="I36" s="425"/>
+      <c r="J36" s="425"/>
+      <c r="K36" s="426"/>
       <c r="O36" s="120" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="510" t="s">
+      <c r="A37" s="430" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="474"/>
-      <c r="C37" s="476"/>
-      <c r="D37" s="504"/>
-      <c r="E37" s="453"/>
-      <c r="F37" s="453"/>
-      <c r="G37" s="453"/>
-      <c r="H37" s="453"/>
-      <c r="I37" s="453"/>
-      <c r="J37" s="453"/>
-      <c r="K37" s="454"/>
+      <c r="B37" s="431"/>
+      <c r="C37" s="432"/>
+      <c r="D37" s="416"/>
+      <c r="E37" s="425"/>
+      <c r="F37" s="425"/>
+      <c r="G37" s="425"/>
+      <c r="H37" s="425"/>
+      <c r="I37" s="425"/>
+      <c r="J37" s="425"/>
+      <c r="K37" s="426"/>
       <c r="O37" s="120" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="488" t="s">
+      <c r="A38" s="435" t="s">
         <v>213</v>
       </c>
-      <c r="B38" s="450"/>
-      <c r="C38" s="450"/>
-      <c r="D38" s="451"/>
-      <c r="E38" s="502"/>
-      <c r="F38" s="427"/>
-      <c r="G38" s="427"/>
-      <c r="H38" s="427"/>
-      <c r="I38" s="427"/>
-      <c r="J38" s="427"/>
-      <c r="K38" s="428"/>
+      <c r="B38" s="436"/>
+      <c r="C38" s="436"/>
+      <c r="D38" s="437"/>
+      <c r="E38" s="419"/>
+      <c r="F38" s="438"/>
+      <c r="G38" s="438"/>
+      <c r="H38" s="438"/>
+      <c r="I38" s="438"/>
+      <c r="J38" s="438"/>
+      <c r="K38" s="439"/>
       <c r="O38" s="120" t="s">
         <v>233</v>
       </c>
@@ -26675,35 +27541,35 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="503" t="s">
+      <c r="A41" s="415" t="s">
         <v>215</v>
       </c>
-      <c r="B41" s="504"/>
-      <c r="C41" s="504"/>
-      <c r="D41" s="504"/>
-      <c r="E41" s="504"/>
-      <c r="F41" s="504"/>
-      <c r="G41" s="504"/>
-      <c r="H41" s="504"/>
-      <c r="I41" s="504"/>
-      <c r="J41" s="504"/>
-      <c r="K41" s="505"/>
+      <c r="B41" s="416"/>
+      <c r="C41" s="416"/>
+      <c r="D41" s="416"/>
+      <c r="E41" s="416"/>
+      <c r="F41" s="416"/>
+      <c r="G41" s="416"/>
+      <c r="H41" s="416"/>
+      <c r="I41" s="416"/>
+      <c r="J41" s="416"/>
+      <c r="K41" s="417"/>
       <c r="O41" s="120" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="506"/>
-      <c r="B42" s="502"/>
-      <c r="C42" s="502"/>
-      <c r="D42" s="502"/>
-      <c r="E42" s="502"/>
-      <c r="F42" s="502"/>
-      <c r="G42" s="502"/>
-      <c r="H42" s="502"/>
-      <c r="I42" s="502"/>
-      <c r="J42" s="502"/>
-      <c r="K42" s="507"/>
+      <c r="A42" s="418"/>
+      <c r="B42" s="419"/>
+      <c r="C42" s="419"/>
+      <c r="D42" s="419"/>
+      <c r="E42" s="419"/>
+      <c r="F42" s="419"/>
+      <c r="G42" s="419"/>
+      <c r="H42" s="419"/>
+      <c r="I42" s="419"/>
+      <c r="J42" s="419"/>
+      <c r="K42" s="420"/>
       <c r="O42" s="120" t="s">
         <v>236</v>
       </c>
@@ -26755,38 +27621,25 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:K38"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K31"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="H21:K22"/>
     <mergeCell ref="A22:F22"/>
@@ -26803,25 +27656,38 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K31"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:K38"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:K37"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G35" xr:uid="{11356FB6-E47E-4283-AE2D-181C920E2C5B}">
@@ -27174,10 +28040,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="512" t="s">
+      <c r="C3" s="513" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="512"/>
+      <c r="D3" s="513"/>
       <c r="E3" s="28" t="s">
         <v>51</v>
       </c>
@@ -27190,7 +28056,7 @@
       </c>
       <c r="B4" s="24">
         <f ca="1">TODAY()</f>
-        <v>44662</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -27199,12 +28065,12 @@
       </c>
       <c r="B5" s="24">
         <f ca="1">B4+90</f>
-        <v>44752</v>
-      </c>
-      <c r="C5" s="512" t="s">
+        <v>44753</v>
+      </c>
+      <c r="C5" s="513" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="512"/>
+      <c r="D5" s="513"/>
       <c r="E5" s="28" t="s">
         <v>51</v>
       </c>
@@ -27222,10 +28088,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="512" t="s">
+      <c r="C7" s="513" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="512"/>
+      <c r="D7" s="513"/>
       <c r="E7" s="28" t="s">
         <v>51</v>
       </c>
@@ -27769,25 +28635,25 @@
       <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="511" t="s">
+      <c r="A49" s="512" t="s">
         <v>290</v>
       </c>
-      <c r="B49" s="511"/>
+      <c r="B49" s="512"/>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="511"/>
-      <c r="B50" s="511"/>
+      <c r="A50" s="512"/>
+      <c r="B50" s="512"/>
       <c r="C50" s="19"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="511"/>
-      <c r="B51" s="511"/>
+      <c r="A51" s="512"/>
+      <c r="B51" s="512"/>
       <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="511"/>
-      <c r="B52" s="511"/>
+      <c r="A52" s="512"/>
+      <c r="B52" s="512"/>
       <c r="C52" s="19"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -27834,10 +28700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="513" t="s">
+      <c r="A1" s="514" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="513"/>
+      <c r="B1" s="514"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -28059,13 +28925,13 @@
       <c r="Q2" s="161"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="514" t="s">
+      <c r="A3" s="526" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="420"/>
-      <c r="C3" s="420"/>
-      <c r="D3" s="420"/>
-      <c r="E3" s="425"/>
+      <c r="B3" s="446"/>
+      <c r="C3" s="446"/>
+      <c r="D3" s="446"/>
+      <c r="E3" s="447"/>
       <c r="F3" s="57"/>
       <c r="G3" s="150" t="s">
         <v>88</v>
@@ -28124,19 +28990,19 @@
       <c r="A6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="520" t="s">
+      <c r="B6" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="521"/>
-      <c r="D6" s="521"/>
-      <c r="E6" s="522"/>
+      <c r="C6" s="532"/>
+      <c r="D6" s="532"/>
+      <c r="E6" s="533"/>
       <c r="G6" s="146" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="515" t="s">
+      <c r="I6" s="527" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="36"/>
@@ -28150,10 +29016,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
-      <c r="B7" s="523"/>
-      <c r="C7" s="524"/>
-      <c r="D7" s="524"/>
-      <c r="E7" s="525"/>
+      <c r="B7" s="534"/>
+      <c r="C7" s="535"/>
+      <c r="D7" s="535"/>
+      <c r="E7" s="536"/>
       <c r="F7" s="145" t="s">
         <v>85</v>
       </c>
@@ -28163,7 +29029,7 @@
       <c r="H7" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="516"/>
+      <c r="I7" s="528"/>
       <c r="K7" s="36"/>
       <c r="L7" s="82"/>
       <c r="M7" s="161"/>
@@ -28470,11 +29336,11 @@
       <c r="R20" s="85"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="517" t="s">
+      <c r="A21" s="525" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="450"/>
-      <c r="C21" s="451"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="437"/>
       <c r="D21" s="94"/>
       <c r="E21" s="26"/>
       <c r="F21" s="95"/>
@@ -28921,10 +29787,10 @@
       <c r="A40" s="140" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="536" t="s">
+      <c r="B40" s="541" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="537"/>
+      <c r="C40" s="542"/>
       <c r="D40" s="50"/>
       <c r="E40" s="50"/>
       <c r="F40" s="156"/>
@@ -28946,10 +29812,10 @@
       <c r="A41" s="141" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="534" t="s">
+      <c r="B41" s="515" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="535"/>
+      <c r="C41" s="516"/>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
       <c r="F41" s="139">
@@ -28975,10 +29841,10 @@
       <c r="A42" s="141" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="534" t="s">
+      <c r="B42" s="515" t="s">
         <v>255</v>
       </c>
-      <c r="C42" s="535"/>
+      <c r="C42" s="516"/>
       <c r="D42" s="50"/>
       <c r="E42" s="50"/>
       <c r="F42" s="139">
@@ -29002,10 +29868,10 @@
     </row>
     <row r="43" spans="1:20" s="121" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="142"/>
-      <c r="B43" s="538" t="s">
+      <c r="B43" s="543" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="539"/>
+      <c r="C43" s="544"/>
       <c r="D43" s="50"/>
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
@@ -29027,10 +29893,10 @@
       <c r="A44" s="141" t="s">
         <v>256</v>
       </c>
-      <c r="B44" s="534" t="s">
+      <c r="B44" s="515" t="s">
         <v>258</v>
       </c>
-      <c r="C44" s="535"/>
+      <c r="C44" s="516"/>
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
       <c r="F44" s="139">
@@ -29056,10 +29922,10 @@
       <c r="A45" s="168" t="s">
         <v>256</v>
       </c>
-      <c r="B45" s="540" t="s">
+      <c r="B45" s="517" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="541"/>
+      <c r="C45" s="518"/>
       <c r="D45" s="50"/>
       <c r="E45" s="50"/>
       <c r="F45" s="139">
@@ -29083,10 +29949,10 @@
       <c r="A46" s="169" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="528" t="s">
+      <c r="B46" s="519" t="s">
         <v>293</v>
       </c>
-      <c r="C46" s="529"/>
+      <c r="C46" s="520"/>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
       <c r="F46" s="139"/>
@@ -29107,10 +29973,10 @@
       <c r="A47" s="166" t="s">
         <v>294</v>
       </c>
-      <c r="B47" s="530" t="s">
+      <c r="B47" s="521" t="s">
         <v>297</v>
       </c>
-      <c r="C47" s="531"/>
+      <c r="C47" s="522"/>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
       <c r="F47" s="139">
@@ -29133,10 +29999,10 @@
       <c r="A48" s="166" t="s">
         <v>295</v>
       </c>
-      <c r="B48" s="526" t="s">
+      <c r="B48" s="537" t="s">
         <v>299</v>
       </c>
-      <c r="C48" s="527"/>
+      <c r="C48" s="538"/>
       <c r="D48" s="50"/>
       <c r="E48" s="50"/>
       <c r="F48" s="139">
@@ -29157,10 +30023,10 @@
     </row>
     <row r="49" spans="1:19" s="156" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="167"/>
-      <c r="B49" s="528" t="s">
+      <c r="B49" s="519" t="s">
         <v>296</v>
       </c>
-      <c r="C49" s="529"/>
+      <c r="C49" s="520"/>
       <c r="D49" s="50"/>
       <c r="E49" s="50"/>
       <c r="F49" s="139"/>
@@ -29181,10 +30047,10 @@
       <c r="A50" s="166" t="s">
         <v>294</v>
       </c>
-      <c r="B50" s="530" t="s">
+      <c r="B50" s="521" t="s">
         <v>298</v>
       </c>
-      <c r="C50" s="531"/>
+      <c r="C50" s="522"/>
       <c r="D50" s="50"/>
       <c r="E50" s="50"/>
       <c r="F50" s="139">
@@ -29207,10 +30073,10 @@
       <c r="A51" s="170" t="s">
         <v>295</v>
       </c>
-      <c r="B51" s="532" t="s">
+      <c r="B51" s="539" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="533"/>
+      <c r="C51" s="540"/>
       <c r="D51" s="50"/>
       <c r="E51" s="50"/>
       <c r="F51" s="139">
@@ -29295,7 +30161,7 @@
       <c r="H55" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="I55" s="518" t="s">
+      <c r="I55" s="529" t="s">
         <v>81</v>
       </c>
       <c r="K55" s="43"/>
@@ -29322,7 +30188,7 @@
       <c r="H56" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="I56" s="519"/>
+      <c r="I56" s="530"/>
       <c r="K56" s="43"/>
       <c r="L56" s="85"/>
       <c r="M56" s="85"/>
@@ -29485,10 +30351,10 @@
       <c r="R64" s="85"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A65" s="517" t="s">
+      <c r="A65" s="525" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="450"/>
+      <c r="B65" s="436"/>
       <c r="K65" s="36"/>
       <c r="L65" s="85"/>
       <c r="M65" s="85"/>
@@ -29605,10 +30471,10 @@
       <c r="X70" s="161"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A71" s="517" t="s">
+      <c r="A71" s="525" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="450"/>
+      <c r="B71" s="436"/>
       <c r="C71" s="95"/>
       <c r="D71" s="95"/>
       <c r="E71" s="95"/>
@@ -29739,13 +30605,13 @@
       <c r="X75" s="161"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="517" t="s">
+      <c r="A76" s="525" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="450"/>
-      <c r="C76" s="450"/>
-      <c r="D76" s="450"/>
-      <c r="E76" s="451"/>
+      <c r="B76" s="436"/>
+      <c r="C76" s="436"/>
+      <c r="D76" s="436"/>
+      <c r="E76" s="437"/>
       <c r="K76" s="36"/>
       <c r="L76" s="161"/>
       <c r="M76" s="161"/>
@@ -29958,10 +30824,10 @@
       <c r="X86" s="161"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A87" s="517" t="s">
+      <c r="A87" s="525" t="s">
         <v>65</v>
       </c>
-      <c r="B87" s="425"/>
+      <c r="B87" s="447"/>
       <c r="C87" s="39"/>
       <c r="K87" s="36"/>
       <c r="L87" s="161"/>
@@ -30133,12 +30999,12 @@
       <c r="X95" s="161"/>
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A96" s="517" t="s">
+      <c r="A96" s="525" t="s">
         <v>329</v>
       </c>
-      <c r="B96" s="450"/>
-      <c r="C96" s="450"/>
-      <c r="D96" s="450"/>
+      <c r="B96" s="436"/>
+      <c r="C96" s="436"/>
+      <c r="D96" s="436"/>
       <c r="E96" s="39"/>
       <c r="K96" s="36"/>
       <c r="L96" s="161"/>
@@ -30156,12 +31022,12 @@
       <c r="X96" s="161"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A97" s="542" t="s">
+      <c r="A97" s="523" t="s">
         <v>262</v>
       </c>
-      <c r="B97" s="543"/>
-      <c r="C97" s="543"/>
-      <c r="D97" s="543"/>
+      <c r="B97" s="524"/>
+      <c r="C97" s="524"/>
+      <c r="D97" s="524"/>
       <c r="E97" s="86" t="s">
         <v>301</v>
       </c>
@@ -30197,10 +31063,10 @@
       <c r="R98" s="85"/>
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A99" s="497" t="s">
+      <c r="A99" s="450" t="s">
         <v>57</v>
       </c>
-      <c r="B99" s="453"/>
+      <c r="B99" s="425"/>
       <c r="C99" s="41">
         <v>0.1</v>
       </c>
@@ -30558,14 +31424,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A87:B87"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A76:E76"/>
@@ -30582,6 +31440,14 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30612,19 +31478,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="550" t="s">
+      <c r="A2" s="545" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="551"/>
-      <c r="C2" s="551"/>
-      <c r="D2" s="551"/>
-      <c r="E2" s="552"/>
+      <c r="B2" s="546"/>
+      <c r="C2" s="546"/>
+      <c r="D2" s="546"/>
+      <c r="E2" s="547"/>
       <c r="F2" s="70"/>
       <c r="G2" s="70"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="554"/>
-      <c r="J2" s="554"/>
-      <c r="K2" s="554"/>
+      <c r="H2" s="548"/>
+      <c r="I2" s="549"/>
+      <c r="J2" s="549"/>
+      <c r="K2" s="549"/>
       <c r="L2" s="70"/>
       <c r="M2" s="70"/>
       <c r="N2" s="70"/>
@@ -30669,18 +31535,18 @@
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
-      <c r="H4" s="555" t="s">
+      <c r="H4" s="550" t="s">
         <v>114</v>
       </c>
-      <c r="I4" s="556"/>
-      <c r="J4" s="556"/>
-      <c r="K4" s="556"/>
-      <c r="L4" s="556"/>
-      <c r="M4" s="556"/>
-      <c r="N4" s="556"/>
-      <c r="O4" s="556"/>
-      <c r="P4" s="556"/>
-      <c r="Q4" s="557"/>
+      <c r="I4" s="551"/>
+      <c r="J4" s="551"/>
+      <c r="K4" s="551"/>
+      <c r="L4" s="551"/>
+      <c r="M4" s="551"/>
+      <c r="N4" s="551"/>
+      <c r="O4" s="551"/>
+      <c r="P4" s="551"/>
+      <c r="Q4" s="552"/>
     </row>
     <row r="5" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
@@ -30700,13 +31566,13 @@
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="70"/>
-      <c r="H5" s="547" t="s">
+      <c r="H5" s="553" t="s">
         <v>306</v>
       </c>
-      <c r="I5" s="548"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="548"/>
-      <c r="L5" s="558"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="554"/>
+      <c r="L5" s="556"/>
       <c r="M5" s="560" t="s">
         <v>315</v>
       </c>
@@ -30733,20 +31599,20 @@
       </c>
       <c r="F6" s="89"/>
       <c r="G6" s="159"/>
-      <c r="H6" s="547" t="s">
+      <c r="H6" s="553" t="s">
         <v>307</v>
       </c>
-      <c r="I6" s="548"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="548"/>
-      <c r="L6" s="558"/>
-      <c r="M6" s="548" t="s">
+      <c r="I6" s="554"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="554"/>
+      <c r="L6" s="556"/>
+      <c r="M6" s="554" t="s">
         <v>316</v>
       </c>
-      <c r="N6" s="548"/>
-      <c r="O6" s="548"/>
-      <c r="P6" s="548"/>
-      <c r="Q6" s="549"/>
+      <c r="N6" s="554"/>
+      <c r="O6" s="554"/>
+      <c r="P6" s="554"/>
+      <c r="Q6" s="555"/>
     </row>
     <row r="7" spans="1:17" s="156" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
@@ -30795,20 +31661,20 @@
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
-      <c r="H8" s="544" t="s">
+      <c r="H8" s="557" t="s">
         <v>308</v>
       </c>
-      <c r="I8" s="545"/>
-      <c r="J8" s="545"/>
-      <c r="K8" s="545"/>
+      <c r="I8" s="558"/>
+      <c r="J8" s="558"/>
+      <c r="K8" s="558"/>
       <c r="L8" s="559"/>
-      <c r="M8" s="545" t="s">
+      <c r="M8" s="558" t="s">
         <v>318</v>
       </c>
-      <c r="N8" s="545"/>
-      <c r="O8" s="545"/>
-      <c r="P8" s="545"/>
-      <c r="Q8" s="546"/>
+      <c r="N8" s="558"/>
+      <c r="O8" s="558"/>
+      <c r="P8" s="558"/>
+      <c r="Q8" s="570"/>
     </row>
     <row r="9" spans="1:17" s="156" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
@@ -30888,20 +31754,20 @@
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
-      <c r="H11" s="547" t="s">
+      <c r="H11" s="553" t="s">
         <v>311</v>
       </c>
-      <c r="I11" s="548"/>
-      <c r="J11" s="548"/>
-      <c r="K11" s="548"/>
-      <c r="L11" s="549"/>
-      <c r="M11" s="544" t="s">
+      <c r="I11" s="554"/>
+      <c r="J11" s="554"/>
+      <c r="K11" s="554"/>
+      <c r="L11" s="555"/>
+      <c r="M11" s="557" t="s">
         <v>320</v>
       </c>
-      <c r="N11" s="545"/>
-      <c r="O11" s="545"/>
-      <c r="P11" s="545"/>
-      <c r="Q11" s="546"/>
+      <c r="N11" s="558"/>
+      <c r="O11" s="558"/>
+      <c r="P11" s="558"/>
+      <c r="Q11" s="570"/>
     </row>
     <row r="12" spans="1:17" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="75" t="s">
@@ -30921,20 +31787,20 @@
       </c>
       <c r="F12" s="70"/>
       <c r="G12" s="70"/>
-      <c r="H12" s="547" t="s">
+      <c r="H12" s="553" t="s">
         <v>312</v>
       </c>
-      <c r="I12" s="548"/>
-      <c r="J12" s="548"/>
-      <c r="K12" s="548"/>
-      <c r="L12" s="549"/>
-      <c r="M12" s="547" t="s">
+      <c r="I12" s="554"/>
+      <c r="J12" s="554"/>
+      <c r="K12" s="554"/>
+      <c r="L12" s="555"/>
+      <c r="M12" s="553" t="s">
         <v>321</v>
       </c>
-      <c r="N12" s="548"/>
-      <c r="O12" s="548"/>
-      <c r="P12" s="548"/>
-      <c r="Q12" s="549"/>
+      <c r="N12" s="554"/>
+      <c r="O12" s="554"/>
+      <c r="P12" s="554"/>
+      <c r="Q12" s="555"/>
     </row>
     <row r="13" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
@@ -30950,20 +31816,20 @@
       </c>
       <c r="F13" s="70"/>
       <c r="G13" s="70"/>
-      <c r="H13" s="547" t="s">
+      <c r="H13" s="553" t="s">
         <v>313</v>
       </c>
-      <c r="I13" s="548"/>
-      <c r="J13" s="548"/>
-      <c r="K13" s="548"/>
-      <c r="L13" s="549"/>
-      <c r="M13" s="547" t="s">
+      <c r="I13" s="554"/>
+      <c r="J13" s="554"/>
+      <c r="K13" s="554"/>
+      <c r="L13" s="555"/>
+      <c r="M13" s="553" t="s">
         <v>322</v>
       </c>
-      <c r="N13" s="548"/>
-      <c r="O13" s="548"/>
-      <c r="P13" s="548"/>
-      <c r="Q13" s="549"/>
+      <c r="N13" s="554"/>
+      <c r="O13" s="554"/>
+      <c r="P13" s="554"/>
+      <c r="Q13" s="555"/>
     </row>
     <row r="14" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="75" t="s">
@@ -30983,18 +31849,18 @@
       </c>
       <c r="F14" s="70"/>
       <c r="G14" s="70"/>
-      <c r="H14" s="544" t="s">
+      <c r="H14" s="557" t="s">
         <v>314</v>
       </c>
-      <c r="I14" s="545"/>
-      <c r="J14" s="545"/>
-      <c r="K14" s="545"/>
-      <c r="L14" s="546"/>
-      <c r="M14" s="547"/>
-      <c r="N14" s="548"/>
-      <c r="O14" s="548"/>
-      <c r="P14" s="548"/>
-      <c r="Q14" s="549"/>
+      <c r="I14" s="558"/>
+      <c r="J14" s="558"/>
+      <c r="K14" s="558"/>
+      <c r="L14" s="570"/>
+      <c r="M14" s="553"/>
+      <c r="N14" s="554"/>
+      <c r="O14" s="554"/>
+      <c r="P14" s="554"/>
+      <c r="Q14" s="555"/>
     </row>
     <row r="15" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="75" t="s">
@@ -33022,6 +33888,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="M12:Q12"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H4:Q4"/>
@@ -33038,12 +33910,6 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="M12:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -33154,14 +34020,14 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
-      <c r="G20" s="453"/>
-      <c r="H20" s="453"/>
-      <c r="I20" s="453"/>
-      <c r="J20" s="453"/>
-      <c r="K20" s="453"/>
-      <c r="L20" s="453"/>
-      <c r="M20" s="453"/>
-      <c r="N20" s="453"/>
+      <c r="G20" s="425"/>
+      <c r="H20" s="425"/>
+      <c r="I20" s="425"/>
+      <c r="J20" s="425"/>
+      <c r="K20" s="425"/>
+      <c r="L20" s="425"/>
+      <c r="M20" s="425"/>
+      <c r="N20" s="425"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
@@ -33460,18 +34326,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33494,6 +34360,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86826D74-1BC1-4162-8D5B-313B1DD29759}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EA10EFB-14C3-4DB0-9B93-1BF197837B54}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -33508,12 +34382,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86826D74-1BC1-4162-8D5B-313B1DD29759}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>